--- a/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
+++ b/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
@@ -5,41 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYO\Desktop\Git\Capstone_Design\1.PrecisionLandingModule\1.ReasearchNote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvvsk\Desktop\Git\Capstone_Design\1.PrecisionLandingModule\1.ReasearchNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1761CF-1994-4DE1-9B8A-07DD930B3488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587B03D-C302-41F7-A0C4-5CD2127A1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" firstSheet="1" activeTab="1" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
+    <workbookView xWindow="4760" yWindow="2210" windowWidth="18600" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
   </bookViews>
   <sheets>
     <sheet name="임시 System 구성도" sheetId="2" r:id="rId1"/>
     <sheet name="제품선정자료" sheetId="4" r:id="rId2"/>
-    <sheet name="FC 선정 자료" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="(OrangeCube로 변경됨) FC 선정 자료" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
   <si>
     <t>Drone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,15 +296,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6C Mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참고자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://silvus.co.kr/product/detail.html?product_no=32&amp;srsltid=AfmBOoot-dal1zmZz6MO0LP7Fg7MR6AOT0aZD8Bo6K8QhB270vFyPYZteOA</t>
   </si>
   <si>
     <t>Power module</t>
@@ -367,14 +350,6 @@
   <si>
     <t>Evaluation
 Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신뢰도 높은 업체, 가성비 제품(고성능 MCU장착)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제공되는 기본 기능만 사용 가능, Customizing이 어려움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모듈 소모 전류 및 분배기 수급 확인 후 선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://lunavolt.com/product/list.html?cate_no=56</t>
   </si>
   <si>
@@ -559,6 +530,26 @@
   </si>
   <si>
     <t>납기일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지인통해 확보 가능 제품이며 수차례 검증한 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrangeCube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고성능 FC, 보유중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고 제품이라 기능 검증 좀 더 꼼꼼히 해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.px4.io/main/ko/flight_controller/cubepilot_cube_orange.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1001,36 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1145,6 +1106,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,10 +1252,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1290,16 +1264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1308,16 +1279,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1332,7 +1297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1344,8 +1309,23 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1602,16 +1582,22 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,8 +1606,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1831,9 +1820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1871,7 +1860,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1977,7 +1966,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2119,7 +2108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2133,89 +2122,89 @@
       <selection activeCell="U12" sqref="U12:Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="91" t="s">
+    <row r="1" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.45">
+      <c r="B2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="10"/>
-      <c r="R2" s="91" t="s">
+      <c r="R2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="93"/>
-    </row>
-    <row r="3" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+    </row>
+    <row r="3" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="10"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="96"/>
-    </row>
-    <row r="5" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="2:43" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="91" t="s">
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="98"/>
+    </row>
+    <row r="5" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.45">
+      <c r="B6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="R6" s="91" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="R6" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93"/>
-      <c r="AE6" s="91" t="s">
+      <c r="S6" s="94"/>
+      <c r="T6" s="95"/>
+      <c r="AE6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="92"/>
-      <c r="AH6" s="93"/>
-    </row>
-    <row r="7" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="96"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="96"/>
-    </row>
-    <row r="8" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="95"/>
+    </row>
+    <row r="7" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="98"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="98"/>
+    </row>
+    <row r="8" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2252,46 +2241,46 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="2:43" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:43" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="109"/>
+      <c r="H10" s="111"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="111"/>
+      <c r="K10" s="113"/>
       <c r="L10" s="16"/>
       <c r="R10" s="15"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="106" t="s">
+      <c r="T10" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="107"/>
+      <c r="U10" s="109"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="108" t="s">
+      <c r="X10" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="109"/>
+      <c r="Y10" s="111"/>
       <c r="Z10" s="10"/>
-      <c r="AA10" s="110" t="s">
+      <c r="AA10" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="111"/>
+      <c r="AB10" s="113"/>
       <c r="AC10" s="16"/>
       <c r="AE10" s="15"/>
       <c r="AQ10" s="15"/>
     </row>
-    <row r="11" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
@@ -2316,94 +2305,94 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="16"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="125" t="s">
+      <c r="AF11" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="80" t="s">
+      <c r="AH11" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="82"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="84"/>
       <c r="AL11" s="20"/>
-      <c r="AM11" s="100" t="s">
+      <c r="AM11" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="102"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="104"/>
       <c r="AQ11" s="15"/>
     </row>
-    <row r="12" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15"/>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="99" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="4"/>
       <c r="J12" s="11"/>
       <c r="L12" s="16"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="97" t="s">
+      <c r="S12" s="99" t="s">
         <v>12</v>
       </c>
       <c r="T12" s="17"/>
-      <c r="U12" s="100" t="s">
+      <c r="U12" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="102"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="104"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="11"/>
       <c r="AC12" s="16"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="126"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="85"/>
+      <c r="AF12" s="128"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="87"/>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="107"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="15"/>
     </row>
-    <row r="13" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15"/>
-      <c r="C13" s="98"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="L13" s="16"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="98"/>
+      <c r="S13" s="100"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="116"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="23"/>
       <c r="AC13" s="16"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="126"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="85"/>
+      <c r="AF13" s="128"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="87"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="20"/>
       <c r="AN13" s="20"/>
@@ -2411,44 +2400,44 @@
       <c r="AP13" s="16"/>
       <c r="AQ13" s="15"/>
     </row>
-    <row r="14" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="15"/>
-      <c r="C14" s="99"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="15"/>
       <c r="J14" s="24"/>
       <c r="K14" s="10"/>
       <c r="L14" s="16"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="99"/>
+      <c r="S14" s="101"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="107"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="16"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="126"/>
+      <c r="AF14" s="128"/>
       <c r="AG14" s="27"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="87"/>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20"/>
       <c r="AN14" s="20"/>
       <c r="AO14" s="20"/>
       <c r="AQ14" s="15"/>
     </row>
-    <row r="15" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="15"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2457,10 +2446,10 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="89" t="s">
+      <c r="J15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="90"/>
+      <c r="K15" s="92"/>
       <c r="L15" s="16"/>
       <c r="R15" s="15"/>
       <c r="S15" s="10"/>
@@ -2471,34 +2460,34 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="89" t="s">
+      <c r="AA15" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AB15" s="90"/>
+      <c r="AB15" s="92"/>
       <c r="AC15" s="16"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="126"/>
-      <c r="AH15" s="83"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="85"/>
+      <c r="AF15" s="128"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="87"/>
       <c r="AL15" s="28"/>
-      <c r="AM15" s="71" t="s">
+      <c r="AM15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="73"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="75"/>
       <c r="AQ15" s="15"/>
     </row>
-    <row r="16" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="15"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="K16" s="7"/>
@@ -2506,36 +2495,36 @@
       <c r="R16" s="15"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="63" t="s">
+      <c r="U16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="64"/>
-      <c r="X16" s="67" t="s">
+      <c r="V16" s="66"/>
+      <c r="X16" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="68"/>
+      <c r="Y16" s="70"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="16"/>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="127"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="88"/>
+      <c r="AF16" s="129"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="90"/>
       <c r="AL16" s="20"/>
-      <c r="AM16" s="74"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="78"/>
       <c r="AQ16" s="15"/>
     </row>
-    <row r="17" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="5"/>
@@ -2544,10 +2533,10 @@
       <c r="R17" s="15"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="66"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="70"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="68"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="72"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
@@ -2563,7 +2552,7 @@
       <c r="AO17" s="20"/>
       <c r="AQ17" s="15"/>
     </row>
-    <row r="18" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="15"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2572,10 +2561,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="89" t="s">
+      <c r="J18" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="90"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="16"/>
       <c r="R18" s="15"/>
       <c r="S18" s="10"/>
@@ -2586,10 +2575,10 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="89" t="s">
+      <c r="AA18" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AB18" s="90"/>
+      <c r="AB18" s="92"/>
       <c r="AC18" s="16"/>
       <c r="AE18" s="15"/>
       <c r="AH18" s="20"/>
@@ -2602,7 +2591,7 @@
       <c r="AO18" s="20"/>
       <c r="AQ18" s="15"/>
     </row>
-    <row r="19" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2627,47 +2616,47 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="6"/>
       <c r="AE19" s="15"/>
-      <c r="AH19" s="77" t="s">
+      <c r="AH19" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="64"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="66"/>
       <c r="AK19" s="20"/>
-      <c r="AL19" s="67" t="s">
+      <c r="AL19" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="129"/>
+      <c r="AM19" s="130"/>
+      <c r="AN19" s="131"/>
       <c r="AO19" s="20"/>
       <c r="AQ19" s="15"/>
     </row>
-    <row r="20" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AE20" s="15"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="66"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="68"/>
       <c r="AK20" s="20"/>
-      <c r="AL20" s="130"/>
-      <c r="AM20" s="131"/>
-      <c r="AN20" s="132"/>
+      <c r="AL20" s="132"/>
+      <c r="AM20" s="133"/>
+      <c r="AN20" s="134"/>
       <c r="AO20" s="20"/>
       <c r="AQ20" s="15"/>
     </row>
-    <row r="21" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AE21" s="15"/>
       <c r="AQ21" s="15"/>
     </row>
-    <row r="22" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="91" t="s">
+    <row r="22" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="R22" s="91" t="s">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="R22" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="92"/>
-      <c r="T22" s="93"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="95"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -2681,16 +2670,16 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
-    </row>
-    <row r="24" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="25" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="98"/>
+    </row>
+    <row r="24" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2715,103 +2704,103 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="8"/>
     </row>
-    <row r="26" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="15"/>
       <c r="L26" s="16"/>
       <c r="R26" s="15"/>
-      <c r="Y26" s="100" t="s">
+      <c r="Y26" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="102"/>
+      <c r="Z26" s="104"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="11"/>
     </row>
-    <row r="27" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="15"/>
       <c r="L27" s="16"/>
       <c r="M27" s="20"/>
       <c r="R27" s="15"/>
-      <c r="U27" s="116" t="s">
+      <c r="U27" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="117"/>
-      <c r="W27" s="118"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="120"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="105"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="107"/>
       <c r="AC27" s="11"/>
       <c r="AN27" s="20"/>
     </row>
-    <row r="28" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="116" t="s">
+      <c r="E28" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138"/>
-      <c r="I28" s="133" t="s">
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
+      <c r="I28" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="134"/>
-      <c r="K28" s="68"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="16"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="97" t="s">
+      <c r="S28" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="119"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="123"/>
       <c r="AC28" s="11"/>
     </row>
-    <row r="29" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="15"/>
-      <c r="C29" s="98"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="143"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="149"/>
       <c r="L29" s="16"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="98"/>
+      <c r="S29" s="100"/>
       <c r="T29" s="36"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="123"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="115" t="s">
+      <c r="Y29" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="Z29" s="82"/>
+      <c r="Z29" s="84"/>
       <c r="AC29" s="11"/>
     </row>
-    <row r="30" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="15"/>
-      <c r="C30" s="99"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="101"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="70"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="72"/>
       <c r="L30" s="16"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="99"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="124"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="88"/>
+      <c r="S30" s="101"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="126"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="90"/>
       <c r="AC30" s="11"/>
     </row>
-    <row r="31" spans="2:43" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="15"/>
       <c r="G31" s="19"/>
       <c r="L31" s="16"/>
@@ -2819,39 +2808,39 @@
       <c r="W31" s="19"/>
       <c r="AC31" s="11"/>
     </row>
-    <row r="32" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="15"/>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="64"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="66"/>
       <c r="L32" s="16"/>
       <c r="R32" s="15"/>
-      <c r="U32" s="133" t="s">
+      <c r="U32" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="68"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="70"/>
       <c r="AC32" s="11"/>
     </row>
-    <row r="33" spans="2:40" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:40" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="15"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="68"/>
       <c r="L33" s="16"/>
       <c r="R33" s="15"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="70"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="72"/>
       <c r="AC33" s="11"/>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.45">
       <c r="B34" s="15"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -2871,7 +2860,7 @@
       <c r="Y34" s="10"/>
       <c r="AC34" s="11"/>
     </row>
-    <row r="35" spans="2:40" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:40" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2896,13 +2885,13 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="9"/>
     </row>
-    <row r="38" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AN38" s="20"/>
     </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.45">
       <c r="AN43" s="20"/>
     </row>
-    <row r="46" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="46" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="39">
     <mergeCell ref="U32:X33"/>
@@ -2955,25 +2944,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1D3C1-4570-48C1-AE47-E62A6C6A1BDC}">
   <dimension ref="B3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.78515625" customWidth="1"/>
-    <col min="9" max="9" width="37.35546875" customWidth="1"/>
-    <col min="10" max="10" width="15.640625" customWidth="1"/>
-    <col min="11" max="11" width="16.2109375" customWidth="1"/>
-    <col min="12" max="12" width="46.140625" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" customWidth="1"/>
-    <col min="14" max="14" width="69.5" customWidth="1"/>
-    <col min="15" max="15" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="46.1640625" customWidth="1"/>
+    <col min="13" max="13" width="45.4140625" customWidth="1"/>
+    <col min="14" max="14" width="69.5" style="60" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="45" t="s">
         <v>30</v>
       </c>
@@ -2998,22 +2987,22 @@
       <c r="M4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="63" t="s">
         <v>50</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="61">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="58">
         <f>SUM(K5:K32)</f>
-        <v>584780</v>
-      </c>
-      <c r="F5" s="148" t="s">
+        <v>404780</v>
+      </c>
+      <c r="F5" s="150" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -3023,106 +3012,104 @@
         <v>1</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="48">
-        <v>180000</v>
+        <v>74</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="60">
+        <v>123</v>
+      </c>
+      <c r="N5" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="57">
         <f>MAX(O5:O32)</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="149"/>
-      <c r="G6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="151"/>
+      <c r="G6" s="50" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="40">
         <v>1</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J6" s="31"/>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <v>0</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
+      <c r="N6" s="61"/>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="53" t="s">
-        <v>66</v>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="50" t="s">
+        <v>64</v>
       </c>
       <c r="H7" s="40">
         <v>1</v>
       </c>
       <c r="I7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="48">
+        <v>30000</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="49">
-        <v>30000</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>68</v>
+      <c r="N7" s="62" t="s">
+        <v>66</v>
       </c>
       <c r="O7" s="31"/>
     </row>
-    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="149"/>
+    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="151"/>
       <c r="G8" s="38" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="32">
         <v>1</v>
       </c>
-      <c r="I8" s="56" t="s">
-        <v>83</v>
+      <c r="I8" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="J8" s="31"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="31"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="50"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F9" s="149"/>
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="151"/>
       <c r="G9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3130,25 +3117,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="48">
+        <v>51900</v>
+      </c>
+      <c r="L9" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="49">
-        <v>51900</v>
-      </c>
-      <c r="L9" s="49" t="s">
-        <v>74</v>
-      </c>
       <c r="M9" s="31"/>
-      <c r="N9" s="51" t="s">
-        <v>73</v>
+      <c r="N9" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F10" s="149"/>
+    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="151"/>
       <c r="G10" s="38" t="s">
         <v>3</v>
       </c>
@@ -3156,101 +3143,101 @@
         <v>1</v>
       </c>
       <c r="I10" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="48">
+        <v>65000</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="49">
-        <v>65000</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="34" t="s">
-        <v>77</v>
-      </c>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="149"/>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="151"/>
       <c r="G11" s="38" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="32">
         <v>1</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>95</v>
+      <c r="I11" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="49">
+        <v>90</v>
+      </c>
+      <c r="K11" s="48">
         <v>34200</v>
       </c>
-      <c r="L11" s="49" t="s">
-        <v>96</v>
+      <c r="L11" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="M11" s="31"/>
-      <c r="N11" s="50" t="s">
-        <v>97</v>
+      <c r="N11" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="O11" s="31"/>
     </row>
-    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F12" s="149"/>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="151"/>
       <c r="G12" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="32">
         <v>4</v>
       </c>
-      <c r="I12" s="56" t="s">
-        <v>98</v>
+      <c r="I12" s="53" t="s">
+        <v>94</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="49">
+        <v>95</v>
+      </c>
+      <c r="K12" s="48">
         <v>14000</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="48"/>
       <c r="M12" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>96</v>
       </c>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F13" s="149"/>
+    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="151"/>
       <c r="G13" s="38" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="32">
         <v>4</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>103</v>
+      <c r="I13" s="53" t="s">
+        <v>99</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K13" s="49">
+        <v>100</v>
+      </c>
+      <c r="K13" s="48">
         <v>57280</v>
       </c>
-      <c r="L13" s="49" t="s">
-        <v>105</v>
+      <c r="L13" s="48" t="s">
+        <v>101</v>
       </c>
       <c r="M13" s="31"/>
-      <c r="N13" s="34" t="s">
-        <v>102</v>
+      <c r="N13" s="61" t="s">
+        <v>98</v>
       </c>
       <c r="O13" s="31"/>
     </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="149"/>
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="152"/>
       <c r="G14" s="38" t="s">
         <v>42</v>
       </c>
@@ -3259,15 +3246,15 @@
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="34"/>
+      <c r="N14" s="61"/>
       <c r="O14" s="31"/>
     </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F15" s="150" t="s">
-        <v>107</v>
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="153" t="s">
+        <v>103</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>38</v>
@@ -3276,77 +3263,77 @@
         <v>1</v>
       </c>
       <c r="I15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="48">
+        <v>51900</v>
+      </c>
+      <c r="L15" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="M15" s="31"/>
+      <c r="N15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="154"/>
+      <c r="G16" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="K15" s="49">
-        <v>51900</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" s="151"/>
-      <c r="G16" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="32">
         <v>1</v>
       </c>
       <c r="I16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="48">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="49">
-        <v>0</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>89</v>
-      </c>
       <c r="M16" s="31"/>
-      <c r="N16" s="34"/>
+      <c r="N16" s="61"/>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F17" s="151"/>
+    <row r="17" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="154"/>
       <c r="G17" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H17" s="32">
         <v>1</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" s="49">
+        <v>114</v>
+      </c>
+      <c r="K17" s="48">
         <v>7200</v>
       </c>
-      <c r="L17" s="49" t="s">
-        <v>121</v>
+      <c r="L17" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="N17" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F18" s="151"/>
+    <row r="18" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="154"/>
       <c r="G18" s="39" t="s">
         <v>37</v>
       </c>
@@ -3354,95 +3341,91 @@
         <v>1</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="49"/>
+        <v>110</v>
+      </c>
+      <c r="K18" s="48"/>
       <c r="L18" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="151"/>
+        <v>120</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="154"/>
       <c r="G19" s="39" t="s">
         <v>48</v>
       </c>
       <c r="H19" s="32">
         <v>2</v>
       </c>
-      <c r="I19" s="56" t="s">
-        <v>81</v>
+      <c r="I19" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J19" s="31"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49" t="s">
-        <v>106</v>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M19" s="31"/>
-      <c r="N19" s="34"/>
+      <c r="N19" s="61"/>
       <c r="O19" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F20" s="151"/>
+    <row r="20" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="154"/>
       <c r="G20" s="39" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="32">
         <v>2</v>
       </c>
-      <c r="I20" s="56" t="s">
-        <v>81</v>
+      <c r="I20" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="31"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49" t="s">
-        <v>106</v>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M20" s="31"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="61"/>
       <c r="O20" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F21" s="151"/>
+    <row r="21" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="155"/>
       <c r="G21" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="32">
         <v>2</v>
       </c>
-      <c r="I21" s="56" t="s">
-        <v>81</v>
+      <c r="I21" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J21" s="31"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49" t="s">
-        <v>106</v>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M21" s="31"/>
-      <c r="N21" s="34"/>
+      <c r="N21" s="61"/>
       <c r="O21" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="150" t="s">
-        <v>108</v>
+    <row r="22" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="153" t="s">
+        <v>104</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>38</v>
@@ -3451,117 +3434,117 @@
         <v>1</v>
       </c>
       <c r="I22" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="48">
+        <v>51900</v>
+      </c>
+      <c r="L22" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="M22" s="31"/>
+      <c r="N22" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="154"/>
+      <c r="G23" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="K22" s="49">
-        <v>51900</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="151"/>
-      <c r="G23" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="H23" s="32">
         <v>1</v>
       </c>
       <c r="I23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="48">
+        <v>0</v>
+      </c>
+      <c r="L23" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="49">
-        <v>0</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>89</v>
-      </c>
       <c r="M23" s="31"/>
-      <c r="N23" s="34"/>
+      <c r="N23" s="61"/>
       <c r="O23" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" s="151"/>
+    <row r="24" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="154"/>
       <c r="G24" s="39" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="32">
         <v>2</v>
       </c>
-      <c r="I24" s="56" t="s">
-        <v>81</v>
+      <c r="I24" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J24" s="31"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49" t="s">
-        <v>106</v>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M24" s="31"/>
-      <c r="N24" s="34"/>
+      <c r="N24" s="61"/>
       <c r="O24" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F25" s="151"/>
+    <row r="25" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="154"/>
       <c r="G25" s="39" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="32">
         <v>2</v>
       </c>
-      <c r="I25" s="56" t="s">
-        <v>81</v>
+      <c r="I25" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J25" s="31"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49" t="s">
-        <v>106</v>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M25" s="31"/>
-      <c r="N25" s="34"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="F26" s="151"/>
+    <row r="26" spans="6:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F26" s="159"/>
       <c r="G26" s="39" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="32">
         <v>2</v>
       </c>
-      <c r="I26" s="56" t="s">
-        <v>81</v>
+      <c r="I26" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J26" s="31"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49" t="s">
-        <v>106</v>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M26" s="31"/>
-      <c r="N26" s="34"/>
+      <c r="N26" s="61"/>
       <c r="O26" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F27" s="152" t="s">
+    <row r="27" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="156" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="41" t="s">
@@ -3570,108 +3553,108 @@
       <c r="H27" s="42">
         <v>1</v>
       </c>
-      <c r="I27" s="56" t="s">
-        <v>95</v>
+      <c r="I27" s="53" t="s">
+        <v>91</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="49">
+        <v>90</v>
+      </c>
+      <c r="K27" s="48">
         <v>34200</v>
       </c>
-      <c r="L27" s="49" t="s">
-        <v>96</v>
+      <c r="L27" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="M27" s="31"/>
-      <c r="N27" s="50" t="s">
-        <v>97</v>
+      <c r="N27" s="62" t="s">
+        <v>93</v>
       </c>
       <c r="O27" s="31"/>
     </row>
-    <row r="28" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F28" s="153"/>
+    <row r="28" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" s="157"/>
       <c r="G28" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H28" s="32">
         <v>1</v>
       </c>
-      <c r="I28" s="62" t="s">
-        <v>109</v>
+      <c r="I28" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="49">
+        <v>106</v>
+      </c>
+      <c r="K28" s="48">
         <v>0</v>
       </c>
-      <c r="L28" s="49" t="s">
-        <v>111</v>
+      <c r="L28" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="M28" s="31"/>
-      <c r="N28" s="50" t="s">
-        <v>112</v>
+      <c r="N28" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="O28" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F29" s="153"/>
+    <row r="29" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="157"/>
       <c r="G29" s="39" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="32">
         <v>1</v>
       </c>
-      <c r="I29" s="56" t="s">
-        <v>113</v>
+      <c r="I29" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>120</v>
       </c>
       <c r="M29" s="31"/>
-      <c r="N29" s="34" t="s">
-        <v>117</v>
+      <c r="N29" s="61" t="s">
+        <v>112</v>
       </c>
       <c r="O29" s="31"/>
     </row>
-    <row r="30" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F30" s="153"/>
+    <row r="30" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="157"/>
       <c r="G30" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H30" s="32">
         <v>1</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" s="49">
+        <v>114</v>
+      </c>
+      <c r="K30" s="48">
         <v>7200</v>
       </c>
-      <c r="L30" s="49" t="s">
-        <v>121</v>
+      <c r="L30" s="48" t="s">
+        <v>116</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>115</v>
       </c>
       <c r="O30" s="31"/>
     </row>
-    <row r="31" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F31" s="153"/>
+    <row r="31" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="157"/>
       <c r="G31" s="39" t="s">
         <v>15</v>
       </c>
@@ -3680,54 +3663,54 @@
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="34"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F32" s="154"/>
+    <row r="32" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F32" s="158"/>
       <c r="G32" s="39" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="32">
         <v>2</v>
       </c>
-      <c r="I32" s="56" t="s">
-        <v>81</v>
+      <c r="I32" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J32" s="31"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49" t="s">
-        <v>106</v>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="M32" s="31"/>
-      <c r="N32" s="34"/>
+      <c r="N32" s="61"/>
       <c r="O32" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" spans="6:8" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="6:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.45">
       <c r="G38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G39" s="54" t="s">
+    <row r="39" spans="6:8" ht="34" x14ac:dyDescent="0.45">
+      <c r="G39" s="51" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3754,411 +3737,411 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B01E396-EDFB-4337-9626-881B450CAD12}">
   <dimension ref="C1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="72" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="57" t="s">
+    <row r="1" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-    </row>
-    <row r="4" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+    </row>
+    <row r="4" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="30"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-    </row>
-    <row r="5" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+    </row>
+    <row r="5" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="30"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="58" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-    </row>
-    <row r="7" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+    </row>
+    <row r="7" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="30"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-    </row>
-    <row r="8" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+    </row>
+    <row r="8" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="30"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-    </row>
-    <row r="9" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+    </row>
+    <row r="9" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="30"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-    </row>
-    <row r="10" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+    </row>
+    <row r="10" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-    </row>
-    <row r="12" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+    </row>
+    <row r="12" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="30"/>
       <c r="D12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-    </row>
-    <row r="13" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+    </row>
+    <row r="13" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="30"/>
       <c r="D13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="155" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-    </row>
-    <row r="14" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+    </row>
+    <row r="14" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="30"/>
       <c r="D14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-    </row>
-    <row r="15" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+    </row>
+    <row r="15" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="57" t="s">
+    <row r="16" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-    </row>
-    <row r="17" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+    </row>
+    <row r="17" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="157" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-    </row>
-    <row r="19" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+    </row>
+    <row r="19" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="30"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-    </row>
-    <row r="20" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+    </row>
+    <row r="20" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="30"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-    </row>
-    <row r="21" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+    </row>
+    <row r="21" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="30"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-    </row>
-    <row r="22" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+    </row>
+    <row r="22" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="30"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-    </row>
-    <row r="23" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+    </row>
+    <row r="23" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="30"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-    </row>
-    <row r="24" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+    </row>
+    <row r="24" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="30"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-    </row>
-    <row r="25" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+    </row>
+    <row r="25" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="30"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-    </row>
-    <row r="26" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+    </row>
+    <row r="26" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="30"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-    </row>
-    <row r="27" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+    </row>
+    <row r="27" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="30"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-    </row>
-    <row r="28" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+    </row>
+    <row r="28" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="30"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-    </row>
-    <row r="29" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+    </row>
+    <row r="29" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="30"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-    </row>
-    <row r="30" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+    </row>
+    <row r="30" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="30"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-    </row>
-    <row r="31" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="162"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+    </row>
+    <row r="31" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="30"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-    </row>
-    <row r="32" spans="3:13" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+    </row>
+    <row r="32" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="30"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="35" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E14:M14"/>
@@ -4177,6 +4160,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420918E4-102F-4514-9A83-B87864288C9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0F7FE-6419-4943-A404-8CA5FBD94A51}">
   <dimension ref="C1:X55"/>
   <sheetViews>
@@ -4184,1050 +4182,1050 @@
       <selection activeCell="C41" sqref="C41:L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="158" t="s">
+    <row r="1" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C2" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="160"/>
-      <c r="O2" s="158" t="s">
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="165"/>
+      <c r="O2" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="160"/>
-    </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="163"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
-      <c r="Q3" s="162"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="162"/>
-      <c r="V3" s="162"/>
-      <c r="W3" s="162"/>
-      <c r="X3" s="163"/>
-    </row>
-    <row r="4" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="166"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="166"/>
-    </row>
-    <row r="5" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="167"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
-      <c r="R6" s="168"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="169"/>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="172"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="172"/>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="170"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="172"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="172"/>
-    </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="170"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="172"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="171"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="172"/>
-    </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="170"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="172"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="171"/>
-      <c r="X10" s="172"/>
-    </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="170"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="172"/>
-    </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="172"/>
-    </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="172"/>
-    </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="170"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171"/>
-      <c r="S14" s="171"/>
-      <c r="T14" s="171"/>
-      <c r="U14" s="171"/>
-      <c r="V14" s="171"/>
-      <c r="W14" s="171"/>
-      <c r="X14" s="172"/>
-    </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="170"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="171"/>
-      <c r="T15" s="171"/>
-      <c r="U15" s="171"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="172"/>
-    </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="170"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="172"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="171"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="171"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="172"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="170"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="171"/>
-      <c r="S17" s="171"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="W17" s="171"/>
-      <c r="X17" s="172"/>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="170"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="172"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="171"/>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="171"/>
-      <c r="V18" s="171"/>
-      <c r="W18" s="171"/>
-      <c r="X18" s="172"/>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="172"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="171"/>
-      <c r="S19" s="171"/>
-      <c r="T19" s="171"/>
-      <c r="U19" s="171"/>
-      <c r="V19" s="171"/>
-      <c r="W19" s="171"/>
-      <c r="X19" s="172"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="172"/>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="172"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="172"/>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="172"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="171"/>
-      <c r="S22" s="171"/>
-      <c r="T22" s="171"/>
-      <c r="U22" s="171"/>
-      <c r="V22" s="171"/>
-      <c r="W22" s="171"/>
-      <c r="X22" s="172"/>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="170"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="172"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="171"/>
-      <c r="S23" s="171"/>
-      <c r="T23" s="171"/>
-      <c r="U23" s="171"/>
-      <c r="V23" s="171"/>
-      <c r="W23" s="171"/>
-      <c r="X23" s="172"/>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="170"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="172"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="171"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="172"/>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="170"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="172"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="171"/>
-      <c r="W25" s="171"/>
-      <c r="X25" s="172"/>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="170"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="172"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="171"/>
-      <c r="S26" s="171"/>
-      <c r="T26" s="171"/>
-      <c r="U26" s="171"/>
-      <c r="V26" s="171"/>
-      <c r="W26" s="171"/>
-      <c r="X26" s="172"/>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="170"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="172"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="171"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="171"/>
-      <c r="S27" s="171"/>
-      <c r="T27" s="171"/>
-      <c r="U27" s="171"/>
-      <c r="V27" s="171"/>
-      <c r="W27" s="171"/>
-      <c r="X27" s="172"/>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="170"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="172"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="172"/>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="170"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="172"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
-      <c r="X29" s="172"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="170"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="172"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="172"/>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="170"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="172"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="172"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="170"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="172"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="171"/>
-      <c r="T32" s="171"/>
-      <c r="U32" s="171"/>
-      <c r="V32" s="171"/>
-      <c r="W32" s="171"/>
-      <c r="X32" s="172"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="170"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="172"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="171"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="171"/>
-      <c r="W33" s="171"/>
-      <c r="X33" s="172"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="170"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="172"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="171"/>
-      <c r="Q34" s="171"/>
-      <c r="R34" s="171"/>
-      <c r="S34" s="171"/>
-      <c r="T34" s="171"/>
-      <c r="U34" s="171"/>
-      <c r="V34" s="171"/>
-      <c r="W34" s="171"/>
-      <c r="X34" s="172"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="170"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="172"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="171"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
-      <c r="T35" s="171"/>
-      <c r="U35" s="171"/>
-      <c r="V35" s="171"/>
-      <c r="W35" s="171"/>
-      <c r="X35" s="172"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="170"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="172"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
-      <c r="T36" s="171"/>
-      <c r="U36" s="171"/>
-      <c r="V36" s="171"/>
-      <c r="W36" s="171"/>
-      <c r="X36" s="172"/>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C37" s="170"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="172"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="171"/>
-      <c r="Q37" s="171"/>
-      <c r="R37" s="171"/>
-      <c r="S37" s="171"/>
-      <c r="T37" s="171"/>
-      <c r="U37" s="171"/>
-      <c r="V37" s="171"/>
-      <c r="W37" s="171"/>
-      <c r="X37" s="172"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C38" s="170"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="172"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="171"/>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="171"/>
-      <c r="S38" s="171"/>
-      <c r="T38" s="171"/>
-      <c r="U38" s="171"/>
-      <c r="V38" s="171"/>
-      <c r="W38" s="171"/>
-      <c r="X38" s="172"/>
-    </row>
-    <row r="39" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C39" s="173"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="175"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="174"/>
-      <c r="W39" s="174"/>
-      <c r="X39" s="175"/>
-    </row>
-    <row r="40" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="176"/>
-      <c r="D41" s="177"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="177"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="177"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="178"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
-      <c r="S41" s="177"/>
-      <c r="T41" s="177"/>
-      <c r="U41" s="177"/>
-      <c r="V41" s="177"/>
-      <c r="W41" s="177"/>
-      <c r="X41" s="178"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="179"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="181"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="180"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="180"/>
-      <c r="S42" s="180"/>
-      <c r="T42" s="180"/>
-      <c r="U42" s="180"/>
-      <c r="V42" s="180"/>
-      <c r="W42" s="180"/>
-      <c r="X42" s="181"/>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="181"/>
-      <c r="O43" s="179"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="180"/>
-      <c r="S43" s="180"/>
-      <c r="T43" s="180"/>
-      <c r="U43" s="180"/>
-      <c r="V43" s="180"/>
-      <c r="W43" s="180"/>
-      <c r="X43" s="181"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="181"/>
-      <c r="O44" s="179"/>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="180"/>
-      <c r="S44" s="180"/>
-      <c r="T44" s="180"/>
-      <c r="U44" s="180"/>
-      <c r="V44" s="180"/>
-      <c r="W44" s="180"/>
-      <c r="X44" s="181"/>
-    </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="181"/>
-      <c r="O45" s="179"/>
-      <c r="P45" s="180"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="180"/>
-      <c r="S45" s="180"/>
-      <c r="T45" s="180"/>
-      <c r="U45" s="180"/>
-      <c r="V45" s="180"/>
-      <c r="W45" s="180"/>
-      <c r="X45" s="181"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="181"/>
-      <c r="O46" s="179"/>
-      <c r="P46" s="180"/>
-      <c r="Q46" s="180"/>
-      <c r="R46" s="180"/>
-      <c r="S46" s="180"/>
-      <c r="T46" s="180"/>
-      <c r="U46" s="180"/>
-      <c r="V46" s="180"/>
-      <c r="W46" s="180"/>
-      <c r="X46" s="181"/>
-    </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="180"/>
-      <c r="H47" s="180"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="181"/>
-      <c r="O47" s="179"/>
-      <c r="P47" s="180"/>
-      <c r="Q47" s="180"/>
-      <c r="R47" s="180"/>
-      <c r="S47" s="180"/>
-      <c r="T47" s="180"/>
-      <c r="U47" s="180"/>
-      <c r="V47" s="180"/>
-      <c r="W47" s="180"/>
-      <c r="X47" s="181"/>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
-      <c r="K48" s="180"/>
-      <c r="L48" s="181"/>
-      <c r="O48" s="179"/>
-      <c r="P48" s="180"/>
-      <c r="Q48" s="180"/>
-      <c r="R48" s="180"/>
-      <c r="S48" s="180"/>
-      <c r="T48" s="180"/>
-      <c r="U48" s="180"/>
-      <c r="V48" s="180"/>
-      <c r="W48" s="180"/>
-      <c r="X48" s="181"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="179"/>
-      <c r="D49" s="180"/>
-      <c r="E49" s="180"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="181"/>
-      <c r="O49" s="179"/>
-      <c r="P49" s="180"/>
-      <c r="Q49" s="180"/>
-      <c r="R49" s="180"/>
-      <c r="S49" s="180"/>
-      <c r="T49" s="180"/>
-      <c r="U49" s="180"/>
-      <c r="V49" s="180"/>
-      <c r="W49" s="180"/>
-      <c r="X49" s="181"/>
-    </row>
-    <row r="50" spans="3:24" ht="18" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C50" s="182"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="184"/>
-      <c r="O50" s="182"/>
-      <c r="P50" s="183"/>
-      <c r="Q50" s="183"/>
-      <c r="R50" s="183"/>
-      <c r="S50" s="183"/>
-      <c r="T50" s="183"/>
-      <c r="U50" s="183"/>
-      <c r="V50" s="183"/>
-      <c r="W50" s="183"/>
-      <c r="X50" s="184"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="164"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="165"/>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="168"/>
+    </row>
+    <row r="4" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="169"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="171"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="171"/>
+    </row>
+    <row r="5" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="174"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="174"/>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C7" s="175"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="176"/>
+      <c r="X7" s="177"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C8" s="175"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="177"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="177"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C9" s="175"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="176"/>
+      <c r="L9" s="177"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="176"/>
+      <c r="X9" s="177"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C10" s="175"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="177"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="177"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="177"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="177"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C12" s="175"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="177"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="177"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="177"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="177"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="177"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="177"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176"/>
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="177"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="176"/>
+      <c r="V16" s="176"/>
+      <c r="W16" s="176"/>
+      <c r="X16" s="177"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="177"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="176"/>
+      <c r="S17" s="176"/>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="177"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C18" s="175"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="177"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="177"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C19" s="175"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="177"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="176"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
+      <c r="U19" s="176"/>
+      <c r="V19" s="176"/>
+      <c r="W19" s="176"/>
+      <c r="X19" s="177"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C20" s="175"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="176"/>
+      <c r="L20" s="177"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="176"/>
+      <c r="R20" s="176"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="176"/>
+      <c r="V20" s="176"/>
+      <c r="W20" s="176"/>
+      <c r="X20" s="177"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C21" s="175"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="177"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="176"/>
+      <c r="X21" s="177"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="177"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="176"/>
+      <c r="R22" s="176"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="177"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C23" s="175"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="176"/>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="177"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="177"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="176"/>
+      <c r="R24" s="176"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="176"/>
+      <c r="U24" s="176"/>
+      <c r="V24" s="176"/>
+      <c r="W24" s="176"/>
+      <c r="X24" s="177"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C25" s="175"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="177"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="176"/>
+      <c r="X25" s="177"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="177"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="177"/>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="177"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="176"/>
+      <c r="R27" s="176"/>
+      <c r="S27" s="176"/>
+      <c r="T27" s="176"/>
+      <c r="U27" s="176"/>
+      <c r="V27" s="176"/>
+      <c r="W27" s="176"/>
+      <c r="X27" s="177"/>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="177"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176"/>
+      <c r="S28" s="176"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="176"/>
+      <c r="V28" s="176"/>
+      <c r="W28" s="176"/>
+      <c r="X28" s="177"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="177"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="176"/>
+      <c r="X29" s="177"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="177"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="176"/>
+      <c r="R30" s="176"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="176"/>
+      <c r="V30" s="176"/>
+      <c r="W30" s="176"/>
+      <c r="X30" s="177"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="177"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="176"/>
+      <c r="R31" s="176"/>
+      <c r="S31" s="176"/>
+      <c r="T31" s="176"/>
+      <c r="U31" s="176"/>
+      <c r="V31" s="176"/>
+      <c r="W31" s="176"/>
+      <c r="X31" s="177"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="177"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="176"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="176"/>
+      <c r="V32" s="176"/>
+      <c r="W32" s="176"/>
+      <c r="X32" s="177"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="177"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="176"/>
+      <c r="R33" s="176"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="176"/>
+      <c r="U33" s="176"/>
+      <c r="V33" s="176"/>
+      <c r="W33" s="176"/>
+      <c r="X33" s="177"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="177"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="176"/>
+      <c r="R34" s="176"/>
+      <c r="S34" s="176"/>
+      <c r="T34" s="176"/>
+      <c r="U34" s="176"/>
+      <c r="V34" s="176"/>
+      <c r="W34" s="176"/>
+      <c r="X34" s="177"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C35" s="175"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="177"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="176"/>
+      <c r="Q35" s="176"/>
+      <c r="R35" s="176"/>
+      <c r="S35" s="176"/>
+      <c r="T35" s="176"/>
+      <c r="U35" s="176"/>
+      <c r="V35" s="176"/>
+      <c r="W35" s="176"/>
+      <c r="X35" s="177"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="177"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="176"/>
+      <c r="R36" s="176"/>
+      <c r="S36" s="176"/>
+      <c r="T36" s="176"/>
+      <c r="U36" s="176"/>
+      <c r="V36" s="176"/>
+      <c r="W36" s="176"/>
+      <c r="X36" s="177"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C37" s="175"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="177"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="176"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
+      <c r="S37" s="176"/>
+      <c r="T37" s="176"/>
+      <c r="U37" s="176"/>
+      <c r="V37" s="176"/>
+      <c r="W37" s="176"/>
+      <c r="X37" s="177"/>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="176"/>
+      <c r="L38" s="177"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="176"/>
+      <c r="U38" s="176"/>
+      <c r="V38" s="176"/>
+      <c r="W38" s="176"/>
+      <c r="X38" s="177"/>
+    </row>
+    <row r="39" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C39" s="178"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="180"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
+      <c r="S39" s="179"/>
+      <c r="T39" s="179"/>
+      <c r="U39" s="179"/>
+      <c r="V39" s="179"/>
+      <c r="W39" s="179"/>
+      <c r="X39" s="180"/>
+    </row>
+    <row r="40" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C41" s="181"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="183"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="182"/>
+      <c r="T41" s="182"/>
+      <c r="U41" s="182"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="182"/>
+      <c r="X41" s="183"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C42" s="184"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="186"/>
+      <c r="O42" s="184"/>
+      <c r="P42" s="185"/>
+      <c r="Q42" s="185"/>
+      <c r="R42" s="185"/>
+      <c r="S42" s="185"/>
+      <c r="T42" s="185"/>
+      <c r="U42" s="185"/>
+      <c r="V42" s="185"/>
+      <c r="W42" s="185"/>
+      <c r="X42" s="186"/>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C43" s="184"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="186"/>
+      <c r="O43" s="184"/>
+      <c r="P43" s="185"/>
+      <c r="Q43" s="185"/>
+      <c r="R43" s="185"/>
+      <c r="S43" s="185"/>
+      <c r="T43" s="185"/>
+      <c r="U43" s="185"/>
+      <c r="V43" s="185"/>
+      <c r="W43" s="185"/>
+      <c r="X43" s="186"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C44" s="184"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="185"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="186"/>
+      <c r="O44" s="184"/>
+      <c r="P44" s="185"/>
+      <c r="Q44" s="185"/>
+      <c r="R44" s="185"/>
+      <c r="S44" s="185"/>
+      <c r="T44" s="185"/>
+      <c r="U44" s="185"/>
+      <c r="V44" s="185"/>
+      <c r="W44" s="185"/>
+      <c r="X44" s="186"/>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C45" s="184"/>
+      <c r="D45" s="185"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="185"/>
+      <c r="L45" s="186"/>
+      <c r="O45" s="184"/>
+      <c r="P45" s="185"/>
+      <c r="Q45" s="185"/>
+      <c r="R45" s="185"/>
+      <c r="S45" s="185"/>
+      <c r="T45" s="185"/>
+      <c r="U45" s="185"/>
+      <c r="V45" s="185"/>
+      <c r="W45" s="185"/>
+      <c r="X45" s="186"/>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C46" s="184"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="185"/>
+      <c r="F46" s="185"/>
+      <c r="G46" s="185"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="185"/>
+      <c r="J46" s="185"/>
+      <c r="K46" s="185"/>
+      <c r="L46" s="186"/>
+      <c r="O46" s="184"/>
+      <c r="P46" s="185"/>
+      <c r="Q46" s="185"/>
+      <c r="R46" s="185"/>
+      <c r="S46" s="185"/>
+      <c r="T46" s="185"/>
+      <c r="U46" s="185"/>
+      <c r="V46" s="185"/>
+      <c r="W46" s="185"/>
+      <c r="X46" s="186"/>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C47" s="184"/>
+      <c r="D47" s="185"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="185"/>
+      <c r="L47" s="186"/>
+      <c r="O47" s="184"/>
+      <c r="P47" s="185"/>
+      <c r="Q47" s="185"/>
+      <c r="R47" s="185"/>
+      <c r="S47" s="185"/>
+      <c r="T47" s="185"/>
+      <c r="U47" s="185"/>
+      <c r="V47" s="185"/>
+      <c r="W47" s="185"/>
+      <c r="X47" s="186"/>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C48" s="184"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="185"/>
+      <c r="J48" s="185"/>
+      <c r="K48" s="185"/>
+      <c r="L48" s="186"/>
+      <c r="O48" s="184"/>
+      <c r="P48" s="185"/>
+      <c r="Q48" s="185"/>
+      <c r="R48" s="185"/>
+      <c r="S48" s="185"/>
+      <c r="T48" s="185"/>
+      <c r="U48" s="185"/>
+      <c r="V48" s="185"/>
+      <c r="W48" s="185"/>
+      <c r="X48" s="186"/>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.45">
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="185"/>
+      <c r="J49" s="185"/>
+      <c r="K49" s="185"/>
+      <c r="L49" s="186"/>
+      <c r="O49" s="184"/>
+      <c r="P49" s="185"/>
+      <c r="Q49" s="185"/>
+      <c r="R49" s="185"/>
+      <c r="S49" s="185"/>
+      <c r="T49" s="185"/>
+      <c r="U49" s="185"/>
+      <c r="V49" s="185"/>
+      <c r="W49" s="185"/>
+      <c r="X49" s="186"/>
+    </row>
+    <row r="50" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C50" s="187"/>
+      <c r="D50" s="188"/>
+      <c r="E50" s="188"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
+      <c r="J50" s="188"/>
+      <c r="K50" s="188"/>
+      <c r="L50" s="189"/>
+      <c r="O50" s="187"/>
+      <c r="P50" s="188"/>
+      <c r="Q50" s="188"/>
+      <c r="R50" s="188"/>
+      <c r="S50" s="188"/>
+      <c r="T50" s="188"/>
+      <c r="U50" s="188"/>
+      <c r="V50" s="188"/>
+      <c r="W50" s="188"/>
+      <c r="X50" s="189"/>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.45">
       <c r="E55" s="29"/>
     </row>
   </sheetData>

--- a/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
+++ b/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvvsk\Desktop\Git\Capstone_Design\1.PrecisionLandingModule\1.ReasearchNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C587B03D-C302-41F7-A0C4-5CD2127A1569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F2645-239E-44AC-A40D-81187777F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="2210" windowWidth="18600" windowHeight="15370" firstSheet="1" activeTab="1" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
   </bookViews>
   <sheets>
     <sheet name="임시 System 구성도" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>Drone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참고자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://ko.aliexpress.com/item/1005007178018233.html?src=google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SiK Telemetry Radio V3 (500mW 433Mhz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,15 +329,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M10 GPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Holybro</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://holybro.com/products/m10-gps?srsltid=AfmBOooUkJQnj_aW6yOGsUzWAzU39AW8mtzUKVgMJcTtOJmIMo6hYihy</t>
   </si>
   <si>
     <t>Evaluation
@@ -431,14 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DSHOT BULLET ESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ko.aliexpress.com/item/32860217492.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=298-731-3000&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;gclsrc=aw.ds&amp;&amp;albagn=888888&amp;&amp;ds_e_adid=&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=x&amp;ds_e_product_group_id=&amp;ds_e_product_id=ko32860217492&amp;ds_e_product_merchant_id=109179779&amp;ds_e_product_country=KR&amp;ds_e_product_language=ko&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=21445427499&amp;albag=&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gad_source=4&amp;gclid=Cj0KCQjw9Km3BhDjARIsAGUb4nw9j-qVCU7TYx-wYrgVck_QP25e_buOU89H3vS5P3mIWc0PSR-ha-UaApbHEALw_wcB</t>
   </si>
   <si>
@@ -447,14 +424,6 @@
   </si>
   <si>
     <t>https://sunnyskyusa.com/products/sunnysky-v3508-motor?srsltid=AfmBOor37jprf0hz8dplbJcfk-TL12KXxLleKfttbgNJk0Vbphh2AHZ7</t>
-  </si>
-  <si>
-    <t>V4508 BLDC Motor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SunnySky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>출력 높은 BLDC 모터</t>
@@ -550,6 +519,65 @@
   </si>
   <si>
     <t>https://docs.px4.io/main/ko/flight_controller/cubepilot_cube_orange.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone
+(HW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiK Telemetry Radio V3 (100mW 433Mhz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.readytosky.com/e_productshow/?527-Readytosky-Ublox-NEO-M8N-GPS--For-APM-and-Pixhawk-Flight-Controller-527.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ublox Neo M8N </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadytoSky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유중, 개발 경험 있는 Ublox 시리즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고출력은 아니라 위성 개수 잡는데 오래걸릴 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">35A BL BLHeli_S </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S2312-920KV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F450 Dev kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.rcbank.co.kr/shop/goods/goods_view.php?goodsno=20749&amp;category=064014002</t>
+  </si>
+  <si>
+    <t>Propeller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Landing Skid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS Mount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +641,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,8 +720,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1119,6 +1153,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1131,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,29 +1392,224 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,12 +1630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,9 +1638,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1396,192 +1647,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,9 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1609,9 +1674,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1701,6 +1763,45 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2118,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F094BDD-518A-4C06-8847-C1CBE02EA916}">
   <dimension ref="B1:AQ46"/>
   <sheetViews>
-    <sheetView topLeftCell="Q11" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12:Y14"/>
+    <sheetView tabSelected="1" topLeftCell="Q11" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2129,75 +2230,75 @@
   <sheetData>
     <row r="1" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:43" x14ac:dyDescent="0.45">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="10"/>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="95"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
     </row>
     <row r="3" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="10"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="98"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="77"/>
     </row>
     <row r="5" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:43" x14ac:dyDescent="0.45">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="R6" s="93" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="R6" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="94"/>
-      <c r="T6" s="95"/>
-      <c r="AE6" s="93" t="s">
+      <c r="S6" s="73"/>
+      <c r="T6" s="74"/>
+      <c r="AE6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AF6" s="94"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="95"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="74"/>
     </row>
     <row r="7" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="98"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="77"/>
     </row>
     <row r="8" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="10"/>
@@ -2244,38 +2345,38 @@
     <row r="10" spans="2:43" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="111"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="113"/>
+      <c r="K10" s="82"/>
       <c r="L10" s="16"/>
       <c r="R10" s="15"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="108" t="s">
+      <c r="T10" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="109"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="110" t="s">
+      <c r="X10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="111"/>
+      <c r="Y10" s="84"/>
       <c r="Z10" s="10"/>
-      <c r="AA10" s="112" t="s">
+      <c r="AA10" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="113"/>
+      <c r="AB10" s="82"/>
       <c r="AC10" s="16"/>
       <c r="AE10" s="15"/>
       <c r="AQ10" s="15"/>
@@ -2305,94 +2406,94 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="16"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="127" t="s">
+      <c r="AF11" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="82" t="s">
+      <c r="AH11" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="84"/>
+      <c r="AI11" s="146"/>
+      <c r="AJ11" s="146"/>
+      <c r="AK11" s="118"/>
       <c r="AL11" s="20"/>
-      <c r="AM11" s="102" t="s">
+      <c r="AM11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="104"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="87"/>
       <c r="AQ11" s="15"/>
     </row>
     <row r="12" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="15"/>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="96" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="4"/>
       <c r="J12" s="11"/>
       <c r="L12" s="16"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="99" t="s">
+      <c r="S12" s="96" t="s">
         <v>12</v>
       </c>
       <c r="T12" s="17"/>
-      <c r="U12" s="102" t="s">
+      <c r="U12" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="104"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="87"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="11"/>
       <c r="AC12" s="16"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="128"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="87"/>
+      <c r="AF12" s="130"/>
+      <c r="AH12" s="147"/>
+      <c r="AI12" s="148"/>
+      <c r="AJ12" s="148"/>
+      <c r="AK12" s="149"/>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="107"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="93"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15"/>
-      <c r="C13" s="100"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="L13" s="16"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="100"/>
+      <c r="S13" s="79"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115"/>
-      <c r="Y13" s="116"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="90"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="23"/>
       <c r="AC13" s="16"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="128"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="87"/>
+      <c r="AF13" s="130"/>
+      <c r="AH13" s="147"/>
+      <c r="AI13" s="148"/>
+      <c r="AJ13" s="148"/>
+      <c r="AK13" s="149"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="20"/>
       <c r="AN13" s="20"/>
@@ -2402,35 +2503,35 @@
     </row>
     <row r="14" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="15"/>
-      <c r="C14" s="101"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="107"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="15"/>
       <c r="J14" s="24"/>
       <c r="K14" s="10"/>
       <c r="L14" s="16"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="101"/>
+      <c r="S14" s="80"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="107"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="93"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="16"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="128"/>
+      <c r="AF14" s="130"/>
       <c r="AG14" s="27"/>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="87"/>
+      <c r="AH14" s="147"/>
+      <c r="AI14" s="148"/>
+      <c r="AJ14" s="148"/>
+      <c r="AK14" s="149"/>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20"/>
       <c r="AN14" s="20"/>
@@ -2446,10 +2547,10 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="92"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="16"/>
       <c r="R15" s="15"/>
       <c r="S15" s="10"/>
@@ -2460,34 +2561,34 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="91" t="s">
+      <c r="AA15" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AB15" s="92"/>
+      <c r="AB15" s="95"/>
       <c r="AC15" s="16"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="128"/>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
-      <c r="AK15" s="87"/>
+      <c r="AF15" s="130"/>
+      <c r="AH15" s="147"/>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="149"/>
       <c r="AL15" s="28"/>
-      <c r="AM15" s="73" t="s">
+      <c r="AM15" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="75"/>
+      <c r="AN15" s="139"/>
+      <c r="AO15" s="140"/>
       <c r="AQ15" s="15"/>
     </row>
     <row r="16" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="15"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="K16" s="7"/>
@@ -2495,36 +2596,36 @@
       <c r="R16" s="15"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="65" t="s">
+      <c r="U16" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="66"/>
-      <c r="X16" s="69" t="s">
+      <c r="V16" s="101"/>
+      <c r="X16" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="70"/>
+      <c r="Y16" s="68"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="16"/>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="129"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="90"/>
+      <c r="AF16" s="131"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="150"/>
+      <c r="AK16" s="120"/>
       <c r="AL16" s="20"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="78"/>
+      <c r="AM16" s="141"/>
+      <c r="AN16" s="142"/>
+      <c r="AO16" s="143"/>
       <c r="AQ16" s="15"/>
     </row>
     <row r="17" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="68"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="5"/>
@@ -2533,10 +2634,10 @@
       <c r="R17" s="15"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="68"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="72"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="104"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="71"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
@@ -2561,10 +2662,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="91" t="s">
+      <c r="J18" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="92"/>
+      <c r="K18" s="95"/>
       <c r="L18" s="16"/>
       <c r="R18" s="15"/>
       <c r="S18" s="10"/>
@@ -2575,10 +2676,10 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="91" t="s">
+      <c r="AA18" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AB18" s="92"/>
+      <c r="AB18" s="95"/>
       <c r="AC18" s="16"/>
       <c r="AE18" s="15"/>
       <c r="AH18" s="20"/>
@@ -2616,29 +2717,29 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="6"/>
       <c r="AE19" s="15"/>
-      <c r="AH19" s="79" t="s">
+      <c r="AH19" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="AI19" s="80"/>
-      <c r="AJ19" s="66"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="101"/>
       <c r="AK19" s="20"/>
-      <c r="AL19" s="69" t="s">
+      <c r="AL19" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="AM19" s="130"/>
-      <c r="AN19" s="131"/>
+      <c r="AM19" s="133"/>
+      <c r="AN19" s="134"/>
       <c r="AO19" s="20"/>
       <c r="AQ19" s="15"/>
     </row>
     <row r="20" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AE20" s="15"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="68"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="104"/>
       <c r="AK20" s="20"/>
-      <c r="AL20" s="132"/>
-      <c r="AM20" s="133"/>
-      <c r="AN20" s="134"/>
+      <c r="AL20" s="135"/>
+      <c r="AM20" s="136"/>
+      <c r="AN20" s="137"/>
       <c r="AO20" s="20"/>
       <c r="AQ20" s="15"/>
     </row>
@@ -2647,16 +2748,16 @@
       <c r="AQ21" s="15"/>
     </row>
     <row r="22" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="R22" s="93" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="R22" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="94"/>
-      <c r="T22" s="95"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="74"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -2671,12 +2772,12 @@
       <c r="AP22" s="2"/>
     </row>
     <row r="23" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="98"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="24" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2708,10 +2809,10 @@
       <c r="B26" s="15"/>
       <c r="L26" s="16"/>
       <c r="R26" s="15"/>
-      <c r="Y26" s="102" t="s">
+      <c r="Y26" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="104"/>
+      <c r="Z26" s="87"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="11"/>
     </row>
@@ -2720,84 +2821,84 @@
       <c r="L27" s="16"/>
       <c r="M27" s="20"/>
       <c r="R27" s="15"/>
-      <c r="U27" s="118" t="s">
+      <c r="U27" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="119"/>
-      <c r="W27" s="120"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="122"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="105"/>
-      <c r="Z27" s="107"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93"/>
       <c r="AC27" s="11"/>
       <c r="AN27" s="20"/>
     </row>
     <row r="28" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="I28" s="135" t="s">
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="I28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="136"/>
-      <c r="K28" s="70"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="16"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="99" t="s">
+      <c r="S28" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="121"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="123"/>
+      <c r="U28" s="123"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="125"/>
       <c r="AC28" s="11"/>
     </row>
     <row r="29" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="15"/>
-      <c r="C29" s="100"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="143"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="149"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
       <c r="L29" s="16"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="100"/>
+      <c r="S29" s="79"/>
       <c r="T29" s="36"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="125"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="Z29" s="84"/>
+      <c r="Z29" s="118"/>
       <c r="AC29" s="11"/>
     </row>
     <row r="30" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="15"/>
-      <c r="C30" s="101"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="146"/>
+      <c r="C30" s="80"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="72"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
       <c r="L30" s="16"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="101"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="125"/>
-      <c r="W30" s="126"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="90"/>
+      <c r="S30" s="80"/>
+      <c r="U30" s="126"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="128"/>
+      <c r="Y30" s="119"/>
+      <c r="Z30" s="120"/>
       <c r="AC30" s="11"/>
     </row>
     <row r="31" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2810,34 +2911,34 @@
     </row>
     <row r="32" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="15"/>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="66"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="101"/>
       <c r="L32" s="16"/>
       <c r="R32" s="15"/>
-      <c r="U32" s="135" t="s">
+      <c r="U32" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="70"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="68"/>
       <c r="AC32" s="11"/>
     </row>
     <row r="33" spans="2:40" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="15"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="68"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="104"/>
       <c r="L33" s="16"/>
       <c r="R33" s="15"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="72"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="71"/>
       <c r="AC33" s="11"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.45">
@@ -2894,6 +2995,29 @@
     <row r="46" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="AM15:AO16"/>
+    <mergeCell ref="AH19:AJ20"/>
+    <mergeCell ref="AH11:AK16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="S28:S30"/>
+    <mergeCell ref="AE6:AH7"/>
+    <mergeCell ref="AM11:AO12"/>
+    <mergeCell ref="R2:Y3"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="U12:Y14"/>
+    <mergeCell ref="Y29:Z30"/>
+    <mergeCell ref="U27:W30"/>
+    <mergeCell ref="Y26:Z27"/>
+    <mergeCell ref="AF11:AF16"/>
+    <mergeCell ref="AL19:AN20"/>
     <mergeCell ref="U32:X33"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B22:D23"/>
@@ -2910,29 +3034,6 @@
     <mergeCell ref="I28:K30"/>
     <mergeCell ref="E32:H33"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="S28:S30"/>
-    <mergeCell ref="AE6:AH7"/>
-    <mergeCell ref="AM11:AO12"/>
-    <mergeCell ref="R2:Y3"/>
-    <mergeCell ref="R6:T7"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="U12:Y14"/>
-    <mergeCell ref="Y29:Z30"/>
-    <mergeCell ref="U27:W30"/>
-    <mergeCell ref="Y26:Z27"/>
-    <mergeCell ref="AF11:AF16"/>
-    <mergeCell ref="AL19:AN20"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="X16:Y17"/>
-    <mergeCell ref="AM15:AO16"/>
-    <mergeCell ref="AH19:AJ20"/>
-    <mergeCell ref="AH11:AK16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2944,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1D3C1-4570-48C1-AE47-E62A6C6A1BDC}">
   <dimension ref="B3:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2991,18 +3092,18 @@
         <v>50</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="57" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" s="58">
         <f>SUM(K5:K32)</f>
-        <v>404780</v>
-      </c>
-      <c r="F5" s="150" t="s">
+        <v>434080</v>
+      </c>
+      <c r="F5" s="151" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -3012,34 +3113,34 @@
         <v>1</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5" s="47">
         <v>0</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N5" s="64" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O5" s="31"/>
     </row>
     <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C6" s="57">
         <f>MAX(O5:O32)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="151"/>
+      <c r="F6" s="152"/>
       <c r="G6" s="50" t="s">
         <v>36</v>
       </c>
@@ -3047,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="48">
@@ -3060,38 +3161,38 @@
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="F7" s="151"/>
+      <c r="F7" s="152"/>
       <c r="G7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="40">
         <v>1</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K7" s="48">
         <v>30000</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O7" s="31"/>
     </row>
     <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F8" s="151"/>
+      <c r="F8" s="152"/>
       <c r="G8" s="38" t="s">
         <v>37</v>
       </c>
@@ -3099,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="48"/>
@@ -3109,7 +3210,7 @@
       <c r="O8" s="31"/>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="151"/>
+      <c r="F9" s="152"/>
       <c r="G9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3117,25 +3218,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="48">
+        <v>47000</v>
+      </c>
+      <c r="L9" s="48" t="s">
         <v>70</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="48">
-        <v>51900</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>72</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O9" s="31"/>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F10" s="151"/>
+      <c r="F10" s="152"/>
       <c r="G10" s="38" t="s">
         <v>3</v>
       </c>
@@ -3143,23 +3244,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="K10" s="48">
-        <v>65000</v>
-      </c>
-      <c r="L10" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>123</v>
+      </c>
       <c r="M10" s="31"/>
       <c r="N10" s="61" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="O10" s="31"/>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F11" s="151"/>
+      <c r="F11" s="152"/>
       <c r="G11" s="38" t="s">
         <v>39</v>
       </c>
@@ -3167,25 +3270,27 @@
         <v>1</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K11" s="48">
         <v>34200</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="N11" s="62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O11" s="31"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F12" s="151"/>
+      <c r="F12" s="152"/>
       <c r="G12" s="38" t="s">
         <v>6</v>
       </c>
@@ -3193,283 +3298,247 @@
         <v>4</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>95</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="J12" s="31"/>
       <c r="K12" s="48">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="O12" s="31"/>
     </row>
     <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F13" s="151"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="38" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="H13" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>100</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J13" s="31"/>
       <c r="K13" s="48">
         <v>57280</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="M13" s="31"/>
       <c r="N13" s="61" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F14" s="152"/>
       <c r="G14" s="38" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H14" s="32">
+        <v>4</v>
+      </c>
+      <c r="I14" s="192" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="195">
+        <v>170000</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="198" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="153"/>
+      <c r="G15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4</v>
+      </c>
+      <c r="I15" s="193"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="31"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="191" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="44">
         <v>1</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F15" s="153" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="44">
+      <c r="I16" s="193"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="199"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="189"/>
+      <c r="G17" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="44">
+        <v>4</v>
+      </c>
+      <c r="I17" s="193"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="189"/>
+      <c r="G18" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="44">
+        <v>4</v>
+      </c>
+      <c r="I18" s="193"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="190"/>
+      <c r="G19" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="44">
         <v>1</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="48">
-        <v>51900</v>
-      </c>
-      <c r="L15" s="48" t="s">
+      <c r="I19" s="194"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="201" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="154"/>
-      <c r="G16" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="H20" s="32">
         <v>1</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="48">
+        <v>0</v>
+      </c>
+      <c r="L20" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="48">
-        <v>0</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="154"/>
-      <c r="G17" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="32">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="48">
-        <v>7200</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F18" s="154"/>
-      <c r="G18" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="32">
-        <v>1</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F19" s="154"/>
-      <c r="G19" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="32">
-        <v>2</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F20" s="154"/>
-      <c r="G20" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="32">
-        <v>2</v>
-      </c>
-      <c r="I20" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="31"/>
       <c r="N20" s="61"/>
-      <c r="O20" s="31">
-        <v>0</v>
-      </c>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F21" s="155"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="39" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="H21" s="32">
-        <v>2</v>
-      </c>
-      <c r="I21" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="48">
+        <v>7200</v>
+      </c>
       <c r="L21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="154"/>
+      <c r="G22" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F22" s="153" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="44">
-        <v>1</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="48">
-        <v>51900</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="31"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F23" s="154"/>
       <c r="G23" s="39" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="H23" s="32">
-        <v>1</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="48">
-        <v>0</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="M23" s="31"/>
       <c r="N23" s="61"/>
@@ -3480,18 +3549,18 @@
     <row r="24" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F24" s="154"/>
       <c r="G24" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="32">
         <v>2</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M24" s="31"/>
       <c r="N24" s="61"/>
@@ -3500,20 +3569,20 @@
       </c>
     </row>
     <row r="25" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F25" s="154"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H25" s="32">
         <v>2</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M25" s="31"/>
       <c r="N25" s="61"/>
@@ -3522,26 +3591,32 @@
       </c>
     </row>
     <row r="26" spans="6:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F26" s="159"/>
-      <c r="G26" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="32">
-        <v>2</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="48"/>
+      <c r="F26" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="44">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="48">
+        <v>47000</v>
+      </c>
       <c r="L26" s="48" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="M26" s="31"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="31">
-        <v>0</v>
-      </c>
+      <c r="N26" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F27" s="156" t="s">
@@ -3554,20 +3629,20 @@
         <v>1</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K27" s="48">
         <v>34200</v>
       </c>
       <c r="L27" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M27" s="31"/>
       <c r="N27" s="62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O27" s="31"/>
     </row>
@@ -3580,20 +3655,20 @@
         <v>1</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K28" s="48">
         <v>0</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="62" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O28" s="31">
         <v>0</v>
@@ -3608,48 +3683,48 @@
         <v>1</v>
       </c>
       <c r="I29" s="53" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K29" s="48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="61" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O29" s="31"/>
     </row>
     <row r="30" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F30" s="157"/>
       <c r="G30" s="39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H30" s="32">
         <v>1</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K30" s="48">
         <v>7200</v>
       </c>
       <c r="L30" s="48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O30" s="31"/>
     </row>
@@ -3678,12 +3753,12 @@
         <v>2</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M32" s="31"/>
       <c r="N32" s="61"/>
@@ -3691,43 +3766,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="6:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.45">
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" ht="34" x14ac:dyDescent="0.45">
-      <c r="G39" s="51" t="s">
-        <v>46</v>
-      </c>
+    <row r="33" spans="7:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="7:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="H37" s="29"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G39" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="F15:F21"/>
+  <mergeCells count="7">
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="F5:F15"/>
+    <mergeCell ref="F20:F25"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N7" r:id="rId1" xr:uid="{F126094E-93C2-466A-AA20-D963221B1081}"/>
-    <hyperlink ref="H37" r:id="rId2" xr:uid="{1A950199-B742-4C57-84BC-5C0F6B85D4C1}"/>
-    <hyperlink ref="N11" r:id="rId3" xr:uid="{1AAD364B-7066-4703-BB20-9DEB768E4D08}"/>
-    <hyperlink ref="N27" r:id="rId4" xr:uid="{E27ED005-417D-49AB-A074-3F073A6A0A4E}"/>
-    <hyperlink ref="N28" r:id="rId5" display="https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F401RE/4695525?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax%20Shopping_Product_Middle%20ROAS&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-21607932652_adg-_ad-__dev-c_ext-_prd-4695525_sig-CjwKCAjwl6-3BhBWEiwApN6_kjD1rXg_Zdts6LCEuquf8K9zADQN8I_Yxh-qJjN6zUFgkSICXEH6iBoCvUsQAvD_BwE&amp;gad_source=4&amp;gclid=CjwKCAjwl6-3BhBWEiwApN6_kjD1rXg_Zdts6LCEuquf8K9zADQN8I_Yxh-qJjN6zUFgkSICXEH6iBoCvUsQAvD_BwE" xr:uid="{D0A572FF-77CB-48C7-9DE9-5A5598872B48}"/>
+    <hyperlink ref="N11" r:id="rId2" xr:uid="{1AAD364B-7066-4703-BB20-9DEB768E4D08}"/>
+    <hyperlink ref="N27" r:id="rId3" xr:uid="{E27ED005-417D-49AB-A074-3F073A6A0A4E}"/>
+    <hyperlink ref="N28" r:id="rId4" display="https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F401RE/4695525?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax%20Shopping_Product_Middle%20ROAS&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-21607932652_adg-_ad-__dev-c_ext-_prd-4695525_sig-CjwKCAjwl6-3BhBWEiwApN6_kjD1rXg_Zdts6LCEuquf8K9zADQN8I_Yxh-qJjN6zUFgkSICXEH6iBoCvUsQAvD_BwE&amp;gad_source=4&amp;gclid=CjwKCAjwl6-3BhBWEiwApN6_kjD1rXg_Zdts6LCEuquf8K9zADQN8I_Yxh-qJjN6zUFgkSICXEH6iBoCvUsQAvD_BwE" xr:uid="{D0A572FF-77CB-48C7-9DE9-5A5598872B48}"/>
+    <hyperlink ref="N14" r:id="rId5" xr:uid="{306E0CA2-DDD9-43BC-8ACD-470A8D44CFC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3749,31 +3812,31 @@
       <c r="C3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
     </row>
     <row r="4" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="30"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
     </row>
     <row r="5" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="30"/>
@@ -3792,57 +3855,57 @@
       <c r="C6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="162" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
+      <c r="D6" s="161" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
     </row>
     <row r="7" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="30"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
     </row>
     <row r="8" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="30"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
     </row>
     <row r="9" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="30"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
     </row>
     <row r="10" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="30"/>
@@ -3854,68 +3917,68 @@
       <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="160" t="s">
+      <c r="E11" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
     </row>
     <row r="12" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="30"/>
       <c r="D12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
     </row>
     <row r="13" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="30"/>
       <c r="D13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
+      <c r="E13" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
     </row>
     <row r="14" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="30"/>
       <c r="D14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
     </row>
     <row r="15" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="30"/>
@@ -3924,220 +3987,220 @@
       <c r="C16" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
     </row>
     <row r="17" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="30"/>
     </row>
     <row r="18" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
+        <v>82</v>
+      </c>
+      <c r="D18" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
     </row>
     <row r="19" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="30"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
     </row>
     <row r="20" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="30"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
     </row>
     <row r="21" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="30"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
     </row>
     <row r="22" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="30"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
     </row>
     <row r="23" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="30"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
     </row>
     <row r="24" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="30"/>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
     </row>
     <row r="25" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="30"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
     </row>
     <row r="26" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="30"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
     </row>
     <row r="27" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="30"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
     </row>
     <row r="28" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="30"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
     </row>
     <row r="29" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="30"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
     </row>
     <row r="30" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="30"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
     </row>
     <row r="31" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="30"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
     </row>
     <row r="32" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="30"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
     </row>
     <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4186,1044 +4249,1044 @@
   <sheetData>
     <row r="1" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="165"/>
-      <c r="O2" s="163" t="s">
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="164"/>
+      <c r="O2" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="165"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="164"/>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="168"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="168"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="167"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="167"/>
     </row>
     <row r="4" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="169"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="171"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="171"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="170"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170"/>
     </row>
     <row r="5" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="174"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
-      <c r="X6" s="174"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="173"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="173"/>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C7" s="175"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="177"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="176"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="175"/>
+      <c r="W7" s="175"/>
+      <c r="X7" s="176"/>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C8" s="175"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="176"/>
-      <c r="W8" s="176"/>
-      <c r="X8" s="177"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="176"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="176"/>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="177"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="176"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="176"/>
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="176"/>
-      <c r="W10" s="176"/>
-      <c r="X10" s="177"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="176"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="176"/>
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="177"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="176"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="176"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="176"/>
-      <c r="W11" s="176"/>
-      <c r="X11" s="177"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="176"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="176"/>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="177"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="176"/>
-      <c r="S12" s="176"/>
-      <c r="T12" s="176"/>
-      <c r="U12" s="176"/>
-      <c r="V12" s="176"/>
-      <c r="W12" s="176"/>
-      <c r="X12" s="177"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="176"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="176"/>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="177"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="177"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="176"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="176"/>
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="176"/>
-      <c r="U14" s="176"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="177"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="176"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="176"/>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="177"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="176"/>
-      <c r="U15" s="176"/>
-      <c r="V15" s="176"/>
-      <c r="W15" s="176"/>
-      <c r="X15" s="177"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="176"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="176"/>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="176"/>
-      <c r="U16" s="176"/>
-      <c r="V16" s="176"/>
-      <c r="W16" s="176"/>
-      <c r="X16" s="177"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="176"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="176"/>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="177"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="176"/>
-      <c r="S17" s="176"/>
-      <c r="T17" s="176"/>
-      <c r="U17" s="176"/>
-      <c r="V17" s="176"/>
-      <c r="W17" s="176"/>
-      <c r="X17" s="177"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="176"/>
     </row>
     <row r="18" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C18" s="175"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
-      <c r="L18" s="177"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="176"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="176"/>
-      <c r="U18" s="176"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="176"/>
-      <c r="X18" s="177"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="176"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="176"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C19" s="175"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="176"/>
-      <c r="L19" s="177"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="176"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="176"/>
-      <c r="U19" s="176"/>
-      <c r="V19" s="176"/>
-      <c r="W19" s="176"/>
-      <c r="X19" s="177"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="176"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="176"/>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C20" s="175"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="177"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="176"/>
-      <c r="S20" s="176"/>
-      <c r="T20" s="176"/>
-      <c r="U20" s="176"/>
-      <c r="V20" s="176"/>
-      <c r="W20" s="176"/>
-      <c r="X20" s="177"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="176"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="176"/>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C21" s="175"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="177"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="176"/>
-      <c r="S21" s="176"/>
-      <c r="T21" s="176"/>
-      <c r="U21" s="176"/>
-      <c r="V21" s="176"/>
-      <c r="W21" s="176"/>
-      <c r="X21" s="177"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="176"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="176"/>
-      <c r="L22" s="177"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="176"/>
-      <c r="S22" s="176"/>
-      <c r="T22" s="176"/>
-      <c r="U22" s="176"/>
-      <c r="V22" s="176"/>
-      <c r="W22" s="176"/>
-      <c r="X22" s="177"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="176"/>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C23" s="175"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="176"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="176"/>
-      <c r="L23" s="177"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="176"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="176"/>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="177"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="176"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="176"/>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="176"/>
-      <c r="L24" s="177"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="176"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="176"/>
-      <c r="U24" s="176"/>
-      <c r="V24" s="176"/>
-      <c r="W24" s="176"/>
-      <c r="X24" s="177"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="176"/>
     </row>
     <row r="25" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C25" s="175"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
-      <c r="L25" s="177"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
-      <c r="U25" s="176"/>
-      <c r="V25" s="176"/>
-      <c r="W25" s="176"/>
-      <c r="X25" s="177"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="176"/>
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="176"/>
-      <c r="T26" s="176"/>
-      <c r="U26" s="176"/>
-      <c r="V26" s="176"/>
-      <c r="W26" s="176"/>
-      <c r="X26" s="177"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="176"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="176"/>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="177"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="176"/>
-      <c r="S27" s="176"/>
-      <c r="T27" s="176"/>
-      <c r="U27" s="176"/>
-      <c r="V27" s="176"/>
-      <c r="W27" s="176"/>
-      <c r="X27" s="177"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="176"/>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="176"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="177"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="176"/>
-      <c r="S28" s="176"/>
-      <c r="T28" s="176"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="176"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="177"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="176"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="176"/>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="177"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="176"/>
-      <c r="S29" s="176"/>
-      <c r="T29" s="176"/>
-      <c r="U29" s="176"/>
-      <c r="V29" s="176"/>
-      <c r="W29" s="176"/>
-      <c r="X29" s="177"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="176"/>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C30" s="175"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="177"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="176"/>
-      <c r="S30" s="176"/>
-      <c r="T30" s="176"/>
-      <c r="U30" s="176"/>
-      <c r="V30" s="176"/>
-      <c r="W30" s="176"/>
-      <c r="X30" s="177"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="176"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="176"/>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="177"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="176"/>
-      <c r="S31" s="176"/>
-      <c r="T31" s="176"/>
-      <c r="U31" s="176"/>
-      <c r="V31" s="176"/>
-      <c r="W31" s="176"/>
-      <c r="X31" s="177"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="176"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="176"/>
     </row>
     <row r="32" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="177"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="176"/>
-      <c r="S32" s="176"/>
-      <c r="T32" s="176"/>
-      <c r="U32" s="176"/>
-      <c r="V32" s="176"/>
-      <c r="W32" s="176"/>
-      <c r="X32" s="177"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="176"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="176"/>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="177"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="176"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="177"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="176"/>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="177"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="176"/>
-      <c r="Q34" s="176"/>
-      <c r="R34" s="176"/>
-      <c r="S34" s="176"/>
-      <c r="T34" s="176"/>
-      <c r="U34" s="176"/>
-      <c r="V34" s="176"/>
-      <c r="W34" s="176"/>
-      <c r="X34" s="177"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="176"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="176"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="177"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="176"/>
-      <c r="R35" s="176"/>
-      <c r="S35" s="176"/>
-      <c r="T35" s="176"/>
-      <c r="U35" s="176"/>
-      <c r="V35" s="176"/>
-      <c r="W35" s="176"/>
-      <c r="X35" s="177"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="176"/>
+      <c r="O35" s="174"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="176"/>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="176"/>
-      <c r="L36" s="177"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
-      <c r="S36" s="176"/>
-      <c r="T36" s="176"/>
-      <c r="U36" s="176"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="176"/>
-      <c r="X36" s="177"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="176"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
+      <c r="S36" s="175"/>
+      <c r="T36" s="175"/>
+      <c r="U36" s="175"/>
+      <c r="V36" s="175"/>
+      <c r="W36" s="175"/>
+      <c r="X36" s="176"/>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="176"/>
-      <c r="L37" s="177"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="176"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
-      <c r="S37" s="176"/>
-      <c r="T37" s="176"/>
-      <c r="U37" s="176"/>
-      <c r="V37" s="176"/>
-      <c r="W37" s="176"/>
-      <c r="X37" s="177"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="176"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="175"/>
+      <c r="Q37" s="175"/>
+      <c r="R37" s="175"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="175"/>
+      <c r="V37" s="175"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="176"/>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="176"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="176"/>
-      <c r="L38" s="177"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="176"/>
-      <c r="U38" s="176"/>
-      <c r="V38" s="176"/>
-      <c r="W38" s="176"/>
-      <c r="X38" s="177"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="176"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="175"/>
+      <c r="U38" s="175"/>
+      <c r="V38" s="175"/>
+      <c r="W38" s="175"/>
+      <c r="X38" s="176"/>
     </row>
     <row r="39" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="178"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="179"/>
-      <c r="F39" s="179"/>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="179"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="180"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="179"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="179"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="179"/>
-      <c r="X39" s="180"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="179"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
+      <c r="U39" s="178"/>
+      <c r="V39" s="178"/>
+      <c r="W39" s="178"/>
+      <c r="X39" s="179"/>
     </row>
     <row r="40" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C41" s="181"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="183"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
-      <c r="S41" s="182"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="182"/>
-      <c r="V41" s="182"/>
-      <c r="W41" s="182"/>
-      <c r="X41" s="183"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="181"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="182"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
+      <c r="S41" s="181"/>
+      <c r="T41" s="181"/>
+      <c r="U41" s="181"/>
+      <c r="V41" s="181"/>
+      <c r="W41" s="181"/>
+      <c r="X41" s="182"/>
     </row>
     <row r="42" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C42" s="184"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="186"/>
-      <c r="O42" s="184"/>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="185"/>
-      <c r="S42" s="185"/>
-      <c r="T42" s="185"/>
-      <c r="U42" s="185"/>
-      <c r="V42" s="185"/>
-      <c r="W42" s="185"/>
-      <c r="X42" s="186"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="184"/>
+      <c r="L42" s="185"/>
+      <c r="O42" s="183"/>
+      <c r="P42" s="184"/>
+      <c r="Q42" s="184"/>
+      <c r="R42" s="184"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="185"/>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C43" s="184"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="185"/>
-      <c r="F43" s="185"/>
-      <c r="G43" s="185"/>
-      <c r="H43" s="185"/>
-      <c r="I43" s="185"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="185"/>
-      <c r="L43" s="186"/>
-      <c r="O43" s="184"/>
-      <c r="P43" s="185"/>
-      <c r="Q43" s="185"/>
-      <c r="R43" s="185"/>
-      <c r="S43" s="185"/>
-      <c r="T43" s="185"/>
-      <c r="U43" s="185"/>
-      <c r="V43" s="185"/>
-      <c r="W43" s="185"/>
-      <c r="X43" s="186"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="184"/>
+      <c r="K43" s="184"/>
+      <c r="L43" s="185"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="184"/>
+      <c r="Q43" s="184"/>
+      <c r="R43" s="184"/>
+      <c r="S43" s="184"/>
+      <c r="T43" s="184"/>
+      <c r="U43" s="184"/>
+      <c r="V43" s="184"/>
+      <c r="W43" s="184"/>
+      <c r="X43" s="185"/>
     </row>
     <row r="44" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C44" s="184"/>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="186"/>
-      <c r="O44" s="184"/>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="185"/>
-      <c r="S44" s="185"/>
-      <c r="T44" s="185"/>
-      <c r="U44" s="185"/>
-      <c r="V44" s="185"/>
-      <c r="W44" s="185"/>
-      <c r="X44" s="186"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
+      <c r="J44" s="184"/>
+      <c r="K44" s="184"/>
+      <c r="L44" s="185"/>
+      <c r="O44" s="183"/>
+      <c r="P44" s="184"/>
+      <c r="Q44" s="184"/>
+      <c r="R44" s="184"/>
+      <c r="S44" s="184"/>
+      <c r="T44" s="184"/>
+      <c r="U44" s="184"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="184"/>
+      <c r="X44" s="185"/>
     </row>
     <row r="45" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C45" s="184"/>
-      <c r="D45" s="185"/>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
-      <c r="J45" s="185"/>
-      <c r="K45" s="185"/>
-      <c r="L45" s="186"/>
-      <c r="O45" s="184"/>
-      <c r="P45" s="185"/>
-      <c r="Q45" s="185"/>
-      <c r="R45" s="185"/>
-      <c r="S45" s="185"/>
-      <c r="T45" s="185"/>
-      <c r="U45" s="185"/>
-      <c r="V45" s="185"/>
-      <c r="W45" s="185"/>
-      <c r="X45" s="186"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+      <c r="J45" s="184"/>
+      <c r="K45" s="184"/>
+      <c r="L45" s="185"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="184"/>
+      <c r="Q45" s="184"/>
+      <c r="R45" s="184"/>
+      <c r="S45" s="184"/>
+      <c r="T45" s="184"/>
+      <c r="U45" s="184"/>
+      <c r="V45" s="184"/>
+      <c r="W45" s="184"/>
+      <c r="X45" s="185"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C46" s="184"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-      <c r="I46" s="185"/>
-      <c r="J46" s="185"/>
-      <c r="K46" s="185"/>
-      <c r="L46" s="186"/>
-      <c r="O46" s="184"/>
-      <c r="P46" s="185"/>
-      <c r="Q46" s="185"/>
-      <c r="R46" s="185"/>
-      <c r="S46" s="185"/>
-      <c r="T46" s="185"/>
-      <c r="U46" s="185"/>
-      <c r="V46" s="185"/>
-      <c r="W46" s="185"/>
-      <c r="X46" s="186"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="184"/>
+      <c r="J46" s="184"/>
+      <c r="K46" s="184"/>
+      <c r="L46" s="185"/>
+      <c r="O46" s="183"/>
+      <c r="P46" s="184"/>
+      <c r="Q46" s="184"/>
+      <c r="R46" s="184"/>
+      <c r="S46" s="184"/>
+      <c r="T46" s="184"/>
+      <c r="U46" s="184"/>
+      <c r="V46" s="184"/>
+      <c r="W46" s="184"/>
+      <c r="X46" s="185"/>
     </row>
     <row r="47" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C47" s="184"/>
-      <c r="D47" s="185"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="185"/>
-      <c r="I47" s="185"/>
-      <c r="J47" s="185"/>
-      <c r="K47" s="185"/>
-      <c r="L47" s="186"/>
-      <c r="O47" s="184"/>
-      <c r="P47" s="185"/>
-      <c r="Q47" s="185"/>
-      <c r="R47" s="185"/>
-      <c r="S47" s="185"/>
-      <c r="T47" s="185"/>
-      <c r="U47" s="185"/>
-      <c r="V47" s="185"/>
-      <c r="W47" s="185"/>
-      <c r="X47" s="186"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184"/>
+      <c r="J47" s="184"/>
+      <c r="K47" s="184"/>
+      <c r="L47" s="185"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="184"/>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="184"/>
+      <c r="S47" s="184"/>
+      <c r="T47" s="184"/>
+      <c r="U47" s="184"/>
+      <c r="V47" s="184"/>
+      <c r="W47" s="184"/>
+      <c r="X47" s="185"/>
     </row>
     <row r="48" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C48" s="184"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="186"/>
-      <c r="O48" s="184"/>
-      <c r="P48" s="185"/>
-      <c r="Q48" s="185"/>
-      <c r="R48" s="185"/>
-      <c r="S48" s="185"/>
-      <c r="T48" s="185"/>
-      <c r="U48" s="185"/>
-      <c r="V48" s="185"/>
-      <c r="W48" s="185"/>
-      <c r="X48" s="186"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="184"/>
+      <c r="J48" s="184"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="185"/>
+      <c r="O48" s="183"/>
+      <c r="P48" s="184"/>
+      <c r="Q48" s="184"/>
+      <c r="R48" s="184"/>
+      <c r="S48" s="184"/>
+      <c r="T48" s="184"/>
+      <c r="U48" s="184"/>
+      <c r="V48" s="184"/>
+      <c r="W48" s="184"/>
+      <c r="X48" s="185"/>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C49" s="184"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="185"/>
-      <c r="G49" s="185"/>
-      <c r="H49" s="185"/>
-      <c r="I49" s="185"/>
-      <c r="J49" s="185"/>
-      <c r="K49" s="185"/>
-      <c r="L49" s="186"/>
-      <c r="O49" s="184"/>
-      <c r="P49" s="185"/>
-      <c r="Q49" s="185"/>
-      <c r="R49" s="185"/>
-      <c r="S49" s="185"/>
-      <c r="T49" s="185"/>
-      <c r="U49" s="185"/>
-      <c r="V49" s="185"/>
-      <c r="W49" s="185"/>
-      <c r="X49" s="186"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="184"/>
+      <c r="J49" s="184"/>
+      <c r="K49" s="184"/>
+      <c r="L49" s="185"/>
+      <c r="O49" s="183"/>
+      <c r="P49" s="184"/>
+      <c r="Q49" s="184"/>
+      <c r="R49" s="184"/>
+      <c r="S49" s="184"/>
+      <c r="T49" s="184"/>
+      <c r="U49" s="184"/>
+      <c r="V49" s="184"/>
+      <c r="W49" s="184"/>
+      <c r="X49" s="185"/>
     </row>
     <row r="50" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="187"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
-      <c r="J50" s="188"/>
-      <c r="K50" s="188"/>
-      <c r="L50" s="189"/>
-      <c r="O50" s="187"/>
-      <c r="P50" s="188"/>
-      <c r="Q50" s="188"/>
-      <c r="R50" s="188"/>
-      <c r="S50" s="188"/>
-      <c r="T50" s="188"/>
-      <c r="U50" s="188"/>
-      <c r="V50" s="188"/>
-      <c r="W50" s="188"/>
-      <c r="X50" s="189"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="188"/>
+      <c r="O50" s="186"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="187"/>
+      <c r="U50" s="187"/>
+      <c r="V50" s="187"/>
+      <c r="W50" s="187"/>
+      <c r="X50" s="188"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.45">
       <c r="E55" s="29"/>

--- a/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
+++ b/1.PrecisionLandingModule/1.ReasearchNote/ResearchNoteData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvvsk\Desktop\Git\Capstone_Design\1.PrecisionLandingModule\1.ReasearchNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F2645-239E-44AC-A40D-81187777F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61D0A97-9285-4CB2-A86D-1FE32FA1BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="23720" windowHeight="20970" activeTab="3" xr2:uid="{D490D1A9-618F-4147-8B02-A90A9E4CE239}"/>
   </bookViews>
   <sheets>
     <sheet name="임시 System 구성도" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
   <si>
     <t>Drone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SiK Telemetry Radio V3 (500mW 433Mhz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://ko.aliexpress.com/item/1005006025972076.html?src=google&amp;src=google&amp;albch=shopping&amp;acnt=298-731-3000&amp;isdl=y&amp;slnk=&amp;plac=&amp;mtctp=&amp;albbt=Google_7_shopping&amp;aff_platform=google&amp;aff_short_key=UneMJZVf&amp;gclsrc=aw.ds&amp;&amp;albagn=888888&amp;&amp;ds_e_adid=&amp;ds_e_matchtype=&amp;ds_e_device=c&amp;ds_e_network=x&amp;ds_e_product_group_id=&amp;ds_e_product_id=ko1005006025972076&amp;ds_e_product_merchant_id=109311891&amp;ds_e_product_country=KR&amp;ds_e_product_language=ko&amp;ds_e_product_channel=online&amp;ds_e_product_store_id=&amp;ds_url_v=2&amp;albcp=21488714352&amp;albag=&amp;isSmbAutoCall=false&amp;needSmbHouyi=false&amp;gad_source=1&amp;gclid=Cj0KCQjw9Km3BhDjARIsAGUb4nyoDOSwwnkG2qhV9c9ZscHiUSJ_dorqVkjXitUaSHuarfUt0uAhpt8aAvihEALw_wcB</t>
   </si>
   <si>
@@ -340,15 +336,6 @@
   <si>
     <t>가져온것 (확인 중)
 중국산이라 그런지 자료가 잘 없습니다 ㅠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6C Mini에 포함됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2kg 이내 경량 제작 시 3S, 
-아니면 최대 6S 생각 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,6 +566,21 @@
   <si>
     <t>GPS Mount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrangeCube에 포함됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4S1P PT-B2200N-SP (14.8V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5lE2cWJJhM</t>
   </si>
 </sst>
 </file>
@@ -727,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1065,19 +1067,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1184,6 +1173,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,7 +1372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
@@ -1347,7 +1390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1362,7 +1405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1374,32 +1417,29 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,12 +1447,69 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,12 +1529,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,21 +1573,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1470,97 +1582,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,9 +1621,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,43 +1636,76 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,13 +1714,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,8 +1732,17 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1764,44 +1834,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,6 +1933,99 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232129</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AA93E1-24AE-4AE1-89FB-F70B8463CA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="692151"/>
+          <a:ext cx="3432528" cy="3111500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>541928</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8111778-4018-202D-5151-6AE376364FD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="4493904"/>
+          <a:ext cx="10555878" cy="4749501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2219,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F094BDD-518A-4C06-8847-C1CBE02EA916}">
   <dimension ref="B1:AQ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q11" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
@@ -2230,75 +2384,75 @@
   <sheetData>
     <row r="1" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:43" x14ac:dyDescent="0.45">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="10"/>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="74"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
     </row>
     <row r="3" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="10"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="77"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="95"/>
     </row>
     <row r="5" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:43" x14ac:dyDescent="0.45">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
-      <c r="R6" s="72" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="R6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="AE6" s="72" t="s">
+      <c r="S6" s="91"/>
+      <c r="T6" s="92"/>
+      <c r="AE6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="74"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="92"/>
     </row>
     <row r="7" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="77"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="95"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="95"/>
     </row>
     <row r="8" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="10"/>
@@ -2345,38 +2499,38 @@
     <row r="10" spans="2:43" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="108"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="82"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="16"/>
       <c r="R10" s="15"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="97" t="s">
+      <c r="T10" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="98"/>
+      <c r="U10" s="106"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="83" t="s">
+      <c r="X10" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="84"/>
+      <c r="Y10" s="108"/>
       <c r="Z10" s="10"/>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="82"/>
+      <c r="AB10" s="110"/>
       <c r="AC10" s="16"/>
       <c r="AE10" s="15"/>
       <c r="AQ10" s="15"/>
@@ -2406,21 +2560,21 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="16"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="129" t="s">
+      <c r="AF11" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="145" t="s">
+      <c r="AH11" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="118"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="81"/>
       <c r="AL11" s="20"/>
-      <c r="AM11" s="85" t="s">
+      <c r="AM11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="87"/>
+      <c r="AN11" s="100"/>
+      <c r="AO11" s="101"/>
       <c r="AQ11" s="15"/>
     </row>
     <row r="12" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2429,12 +2583,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="4"/>
       <c r="J12" s="11"/>
       <c r="L12" s="16"/>
@@ -2443,57 +2597,57 @@
         <v>12</v>
       </c>
       <c r="T12" s="17"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="11"/>
       <c r="AC12" s="16"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="130"/>
-      <c r="AH12" s="147"/>
-      <c r="AI12" s="148"/>
-      <c r="AJ12" s="148"/>
-      <c r="AK12" s="149"/>
+      <c r="AF12" s="125"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="27"/>
-      <c r="AM12" s="91"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="93"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="104"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="15"/>
-      <c r="C13" s="79"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="90"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="113"/>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="L13" s="16"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="79"/>
+      <c r="S13" s="97"/>
       <c r="T13" s="10"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="113"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="23"/>
       <c r="AC13" s="16"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="130"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="148"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="149"/>
+      <c r="AF13" s="125"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="84"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="20"/>
       <c r="AN13" s="20"/>
@@ -2503,35 +2657,35 @@
     </row>
     <row r="14" spans="2:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="15"/>
-      <c r="C14" s="80"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="15"/>
       <c r="J14" s="24"/>
       <c r="K14" s="10"/>
       <c r="L14" s="16"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="80"/>
+      <c r="S14" s="98"/>
       <c r="T14" s="10"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="93"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="104"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="16"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="130"/>
+      <c r="AF14" s="125"/>
       <c r="AG14" s="27"/>
-      <c r="AH14" s="147"/>
-      <c r="AI14" s="148"/>
-      <c r="AJ14" s="148"/>
-      <c r="AK14" s="149"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="84"/>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20"/>
       <c r="AN14" s="20"/>
@@ -2547,10 +2701,10 @@
       <c r="G15" s="22"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="94" t="s">
+      <c r="J15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="95"/>
+      <c r="K15" s="89"/>
       <c r="L15" s="16"/>
       <c r="R15" s="15"/>
       <c r="S15" s="10"/>
@@ -2561,34 +2715,34 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="10"/>
-      <c r="AA15" s="94" t="s">
+      <c r="AA15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AB15" s="95"/>
+      <c r="AB15" s="89"/>
       <c r="AC15" s="16"/>
       <c r="AE15" s="15"/>
-      <c r="AF15" s="130"/>
-      <c r="AH15" s="147"/>
-      <c r="AI15" s="148"/>
-      <c r="AJ15" s="148"/>
-      <c r="AK15" s="149"/>
+      <c r="AF15" s="125"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="84"/>
       <c r="AL15" s="28"/>
-      <c r="AM15" s="138" t="s">
+      <c r="AM15" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="140"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="72"/>
       <c r="AQ15" s="15"/>
     </row>
     <row r="16" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="15"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="K16" s="7"/>
@@ -2596,36 +2750,36 @@
       <c r="R16" s="15"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
-      <c r="U16" s="99" t="s">
+      <c r="U16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="V16" s="101"/>
-      <c r="X16" s="132" t="s">
+      <c r="V16" s="63"/>
+      <c r="X16" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Y16" s="68"/>
+      <c r="Y16" s="67"/>
       <c r="Z16" s="10"/>
       <c r="AB16" s="7"/>
       <c r="AC16" s="16"/>
       <c r="AE16" s="15"/>
-      <c r="AF16" s="131"/>
-      <c r="AH16" s="119"/>
-      <c r="AI16" s="150"/>
-      <c r="AJ16" s="150"/>
-      <c r="AK16" s="120"/>
+      <c r="AF16" s="126"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="86"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="87"/>
       <c r="AL16" s="20"/>
-      <c r="AM16" s="141"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="143"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="75"/>
       <c r="AQ16" s="15"/>
     </row>
     <row r="17" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="5"/>
@@ -2634,10 +2788,10 @@
       <c r="R17" s="15"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="104"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="71"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="65"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="69"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
@@ -2662,10 +2816,10 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="94" t="s">
+      <c r="J18" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="95"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="16"/>
       <c r="R18" s="15"/>
       <c r="S18" s="10"/>
@@ -2676,10 +2830,10 @@
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="94" t="s">
+      <c r="AA18" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AB18" s="95"/>
+      <c r="AB18" s="89"/>
       <c r="AC18" s="16"/>
       <c r="AE18" s="15"/>
       <c r="AH18" s="20"/>
@@ -2717,29 +2871,29 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="6"/>
       <c r="AE19" s="15"/>
-      <c r="AH19" s="144" t="s">
+      <c r="AH19" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="101"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="63"/>
       <c r="AK19" s="20"/>
-      <c r="AL19" s="132" t="s">
+      <c r="AL19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AM19" s="133"/>
-      <c r="AN19" s="134"/>
+      <c r="AM19" s="127"/>
+      <c r="AN19" s="128"/>
       <c r="AO19" s="20"/>
       <c r="AQ19" s="15"/>
     </row>
     <row r="20" spans="2:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AE20" s="15"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="65"/>
       <c r="AK20" s="20"/>
-      <c r="AL20" s="135"/>
-      <c r="AM20" s="136"/>
-      <c r="AN20" s="137"/>
+      <c r="AL20" s="129"/>
+      <c r="AM20" s="130"/>
+      <c r="AN20" s="131"/>
       <c r="AO20" s="20"/>
       <c r="AQ20" s="15"/>
     </row>
@@ -2748,16 +2902,16 @@
       <c r="AQ21" s="15"/>
     </row>
     <row r="22" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="R22" s="72" t="s">
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="R22" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="73"/>
-      <c r="T22" s="74"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="92"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -2772,12 +2926,12 @@
       <c r="AP22" s="2"/>
     </row>
     <row r="23" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="77"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="95"/>
     </row>
     <row r="24" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2809,10 +2963,10 @@
       <c r="B26" s="15"/>
       <c r="L26" s="16"/>
       <c r="R26" s="15"/>
-      <c r="Y26" s="85" t="s">
+      <c r="Y26" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="87"/>
+      <c r="Z26" s="101"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="11"/>
     </row>
@@ -2821,84 +2975,84 @@
       <c r="L27" s="16"/>
       <c r="M27" s="20"/>
       <c r="R27" s="15"/>
-      <c r="U27" s="105" t="s">
+      <c r="U27" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="121"/>
-      <c r="W27" s="122"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="117"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="93"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="104"/>
       <c r="AC27" s="11"/>
       <c r="AN27" s="20"/>
     </row>
     <row r="28" spans="2:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="15"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
-      <c r="I28" s="66" t="s">
+      <c r="F28" s="136"/>
+      <c r="G28" s="137"/>
+      <c r="I28" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="67"/>
       <c r="L28" s="16"/>
       <c r="R28" s="15"/>
       <c r="S28" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="123"/>
-      <c r="V28" s="124"/>
-      <c r="W28" s="125"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="120"/>
       <c r="AC28" s="11"/>
     </row>
     <row r="29" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="15"/>
-      <c r="C29" s="79"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="146"/>
       <c r="L29" s="16"/>
       <c r="R29" s="15"/>
-      <c r="S29" s="79"/>
+      <c r="S29" s="97"/>
       <c r="T29" s="36"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="125"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="119"/>
+      <c r="W29" s="120"/>
       <c r="X29" s="9"/>
-      <c r="Y29" s="117" t="s">
+      <c r="Y29" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="Z29" s="118"/>
+      <c r="Z29" s="81"/>
       <c r="AC29" s="11"/>
     </row>
     <row r="30" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="15"/>
-      <c r="C30" s="80"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113"/>
+      <c r="C30" s="98"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="143"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="71"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="69"/>
       <c r="L30" s="16"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="80"/>
-      <c r="U30" s="126"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="128"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="120"/>
+      <c r="S30" s="98"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="123"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="87"/>
       <c r="AC30" s="11"/>
     </row>
     <row r="31" spans="2:43" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2911,34 +3065,34 @@
     </row>
     <row r="32" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="15"/>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="63"/>
       <c r="L32" s="16"/>
       <c r="R32" s="15"/>
-      <c r="U32" s="66" t="s">
+      <c r="U32" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="68"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="67"/>
       <c r="AC32" s="11"/>
     </row>
     <row r="33" spans="2:40" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B33" s="15"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="104"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="65"/>
       <c r="L33" s="16"/>
       <c r="R33" s="15"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="71"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="134"/>
+      <c r="X33" s="69"/>
       <c r="AC33" s="11"/>
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.45">
@@ -2995,13 +3149,22 @@
     <row r="46" spans="2:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="X16:Y17"/>
-    <mergeCell ref="AM15:AO16"/>
-    <mergeCell ref="AH19:AJ20"/>
-    <mergeCell ref="AH11:AK16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="U32:X33"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E12:H14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="E16:G17"/>
+    <mergeCell ref="E28:G30"/>
+    <mergeCell ref="I28:K30"/>
+    <mergeCell ref="E32:H33"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="R22:T23"/>
     <mergeCell ref="S28:S30"/>
     <mergeCell ref="AE6:AH7"/>
@@ -3018,22 +3181,13 @@
     <mergeCell ref="Y26:Z27"/>
     <mergeCell ref="AF11:AF16"/>
     <mergeCell ref="AL19:AN20"/>
-    <mergeCell ref="U32:X33"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E12:H14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="E16:G17"/>
-    <mergeCell ref="E28:G30"/>
-    <mergeCell ref="I28:K30"/>
-    <mergeCell ref="E32:H33"/>
-    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="X16:Y17"/>
+    <mergeCell ref="AM15:AO16"/>
+    <mergeCell ref="AH19:AJ20"/>
+    <mergeCell ref="AH11:AK16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA18:AB18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1D3C1-4570-48C1-AE47-E62A6C6A1BDC}">
-  <dimension ref="B3:P39"/>
+  <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3088,22 +3242,22 @@
       <c r="M4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>111</v>
+      <c r="O4" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="57" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="58">
         <f>SUM(K5:K32)</f>
         <v>434080</v>
       </c>
-      <c r="F5" s="151" t="s">
+      <c r="F5" s="156" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -3113,34 +3267,36 @@
         <v>1</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="47">
         <v>0</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="31"/>
+        <v>112</v>
+      </c>
+      <c r="N5" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="57">
         <f>MAX(O5:O32)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="152"/>
+      <c r="F6" s="157"/>
       <c r="G6" s="50" t="s">
         <v>36</v>
       </c>
@@ -3148,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="48">
@@ -3156,15 +3312,17 @@
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="31"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="F7" s="152"/>
+      <c r="F7" s="157"/>
       <c r="G7" s="50" t="s">
         <v>63</v>
       </c>
@@ -3175,7 +3333,7 @@
         <v>64</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="48">
         <v>30000</v>
@@ -3186,13 +3344,13 @@
       <c r="M7" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="31"/>
+      <c r="O7" s="203"/>
     </row>
     <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F8" s="152"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="38" t="s">
         <v>37</v>
       </c>
@@ -3200,17 +3358,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="48"/>
       <c r="L8" s="31"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="31"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F9" s="152"/>
+      <c r="F9" s="157"/>
       <c r="G9" s="38" t="s">
         <v>38</v>
       </c>
@@ -3218,25 +3378,27 @@
         <v>1</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9" s="48">
         <v>47000</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9" s="31"/>
-      <c r="N9" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="31"/>
+      <c r="N9" s="201" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F10" s="152"/>
+      <c r="F10" s="157"/>
       <c r="G10" s="38" t="s">
         <v>3</v>
       </c>
@@ -3244,25 +3406,27 @@
         <v>1</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K10" s="48">
         <v>0</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M10" s="31"/>
-      <c r="N10" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="O10" s="31"/>
+      <c r="N10" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F11" s="152"/>
+      <c r="F11" s="157"/>
       <c r="G11" s="38" t="s">
         <v>39</v>
       </c>
@@ -3270,27 +3434,27 @@
         <v>1</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K11" s="48">
         <v>34200</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="31"/>
+        <v>121</v>
+      </c>
+      <c r="N11" s="201" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="203"/>
     </row>
     <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F12" s="152"/>
+      <c r="F12" s="157"/>
       <c r="G12" s="38" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="48">
@@ -3306,15 +3470,17 @@
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="N12" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="203" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F13" s="152"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="38" t="s">
         <v>42</v>
       </c>
@@ -3322,185 +3488,189 @@
         <v>1</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="48">
         <v>57280</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="31"/>
-      <c r="N13" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="31"/>
+      <c r="N13" s="200" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="203"/>
     </row>
     <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F14" s="152"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="32">
         <v>4</v>
       </c>
-      <c r="I14" s="192" t="s">
-        <v>127</v>
+      <c r="I14" s="147" t="s">
+        <v>124</v>
       </c>
       <c r="J14" s="31"/>
-      <c r="K14" s="195">
+      <c r="K14" s="150">
         <v>170000</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="198" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" s="31"/>
+        <v>88</v>
+      </c>
+      <c r="N14" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="204" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F15" s="153"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="38" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="32">
         <v>4</v>
       </c>
-      <c r="I15" s="193"/>
+      <c r="I15" s="148"/>
       <c r="J15" s="31"/>
-      <c r="K15" s="196"/>
+      <c r="K15" s="151"/>
       <c r="L15" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M15" s="31"/>
-      <c r="N15" s="199"/>
-      <c r="O15" s="31"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="205"/>
     </row>
     <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="191" t="s">
-        <v>117</v>
+      <c r="F16" s="165" t="s">
+        <v>114</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H16" s="44">
         <v>1</v>
       </c>
-      <c r="I16" s="193"/>
+      <c r="I16" s="148"/>
       <c r="J16" s="31"/>
-      <c r="K16" s="196"/>
+      <c r="K16" s="151"/>
       <c r="L16" s="48"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" s="189"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="205"/>
+    </row>
+    <row r="17" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="166"/>
       <c r="G17" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H17" s="44">
         <v>4</v>
       </c>
-      <c r="I17" s="193"/>
+      <c r="I17" s="148"/>
       <c r="J17" s="31"/>
-      <c r="K17" s="196"/>
+      <c r="K17" s="151"/>
       <c r="L17" s="48"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F18" s="189"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="205"/>
+    </row>
+    <row r="18" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18" s="166"/>
       <c r="G18" s="43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" s="44">
         <v>4</v>
       </c>
-      <c r="I18" s="193"/>
+      <c r="I18" s="148"/>
       <c r="J18" s="31"/>
-      <c r="K18" s="196"/>
+      <c r="K18" s="151"/>
       <c r="L18" s="48"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F19" s="190"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="205"/>
+    </row>
+    <row r="19" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="167"/>
       <c r="G19" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="44">
         <v>1</v>
       </c>
-      <c r="I19" s="194"/>
+      <c r="I19" s="149"/>
       <c r="J19" s="31"/>
-      <c r="K19" s="197"/>
+      <c r="K19" s="152"/>
       <c r="L19" s="48"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F20" s="201" t="s">
-        <v>95</v>
+      <c r="N19" s="155"/>
+      <c r="O19" s="206"/>
+    </row>
+    <row r="20" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20" s="159" t="s">
+        <v>92</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="32">
         <v>1</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K20" s="48">
         <v>0</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M20" s="31"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F21" s="154"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21" s="160"/>
       <c r="G21" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="32">
         <v>1</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J21" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K21" s="48">
         <v>7200</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F22" s="154"/>
+        <v>106</v>
+      </c>
+      <c r="N21" s="200" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="203"/>
+    </row>
+    <row r="22" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22" s="160"/>
       <c r="G22" s="39" t="s">
         <v>37</v>
       </c>
@@ -3508,24 +3678,23 @@
         <v>1</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M22" s="48"/>
-      <c r="N22" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-    </row>
-    <row r="23" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F23" s="154"/>
+      <c r="N22" s="202" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="203"/>
+    </row>
+    <row r="23" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23" s="160"/>
       <c r="G23" s="39" t="s">
         <v>48</v>
       </c>
@@ -3533,21 +3702,21 @@
         <v>2</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M23" s="31"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F24" s="154"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24" s="160"/>
       <c r="G24" s="39" t="s">
         <v>49</v>
       </c>
@@ -3555,21 +3724,21 @@
         <v>2</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M24" s="31"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F25" s="155"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25" s="161"/>
       <c r="G25" s="39" t="s">
         <v>45</v>
       </c>
@@ -3577,22 +3746,22 @@
         <v>2</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M25" s="31"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="6:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F26" s="65" t="s">
-        <v>96</v>
+      <c r="N25" s="200"/>
+      <c r="O25" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F26" s="61" t="s">
+        <v>93</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>38</v>
@@ -3601,25 +3770,27 @@
         <v>1</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K26" s="48">
         <v>47000</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="31"/>
-      <c r="N26" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F27" s="156" t="s">
+      <c r="N26" s="201" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27" s="162" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="41" t="s">
@@ -3629,25 +3800,25 @@
         <v>1</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K27" s="48">
         <v>34200</v>
       </c>
       <c r="L27" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M27" s="31"/>
-      <c r="N27" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="31"/>
-    </row>
-    <row r="28" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F28" s="157"/>
+      <c r="N27" s="201" t="s">
+        <v>86</v>
+      </c>
+      <c r="O27" s="203"/>
+    </row>
+    <row r="28" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28" s="163"/>
       <c r="G28" s="39" t="s">
         <v>47</v>
       </c>
@@ -3655,27 +3826,27 @@
         <v>1</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K28" s="48">
         <v>0</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M28" s="31"/>
-      <c r="N28" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F29" s="157"/>
+      <c r="N28" s="201" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="203" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29" s="163"/>
       <c r="G29" s="39" t="s">
         <v>37</v>
       </c>
@@ -3683,53 +3854,53 @@
         <v>1</v>
       </c>
       <c r="I29" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="31"/>
+      <c r="N29" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F30" s="157"/>
+      <c r="O29" s="203"/>
+    </row>
+    <row r="30" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30" s="163"/>
       <c r="G30" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H30" s="32">
         <v>1</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K30" s="48">
         <v>7200</v>
       </c>
       <c r="L30" s="48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="N30" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F31" s="157"/>
+        <v>106</v>
+      </c>
+      <c r="N30" s="200" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="203"/>
+    </row>
+    <row r="31" spans="6:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31" s="163"/>
       <c r="G31" s="39" t="s">
         <v>15</v>
       </c>
@@ -3741,11 +3912,11 @@
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="31"/>
-    </row>
-    <row r="32" spans="6:16" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F32" s="158"/>
+      <c r="N31" s="200"/>
+      <c r="O31" s="203"/>
+    </row>
+    <row r="32" spans="6:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F32" s="164"/>
       <c r="G32" s="39" t="s">
         <v>44</v>
       </c>
@@ -3753,17 +3924,17 @@
         <v>2</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M32" s="31"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="31">
-        <v>0</v>
+      <c r="N32" s="200"/>
+      <c r="O32" s="207" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="7:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3775,14 +3946,15 @@
       <c r="G39" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="O14:O19"/>
     <mergeCell ref="I14:I19"/>
     <mergeCell ref="K14:K19"/>
     <mergeCell ref="N14:N19"/>
     <mergeCell ref="F5:F15"/>
     <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3812,31 +3984,31 @@
       <c r="C3" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="170" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="30"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
     </row>
     <row r="5" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="30"/>
@@ -3855,57 +4027,57 @@
       <c r="C6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
+      <c r="D6" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C7" s="30"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
     </row>
     <row r="8" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="30"/>
-      <c r="D8" s="161"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
     </row>
     <row r="9" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="30"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
     </row>
     <row r="10" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="30"/>
@@ -3917,68 +4089,68 @@
       <c r="D11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="E11" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
     </row>
     <row r="12" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="30"/>
       <c r="D12" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
     </row>
     <row r="13" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C13" s="30"/>
       <c r="D13" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
+      <c r="E13" s="168" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="30"/>
       <c r="D14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
     </row>
     <row r="15" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C15" s="30"/>
@@ -3987,220 +4159,220 @@
       <c r="C16" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="160" t="s">
+      <c r="D16" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
     </row>
     <row r="17" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" s="30"/>
     </row>
     <row r="18" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C18" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="161" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
+        <v>79</v>
+      </c>
+      <c r="D18" s="170" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
     </row>
     <row r="19" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="30"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
     </row>
     <row r="20" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C20" s="30"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
     </row>
     <row r="21" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" s="30"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
     </row>
     <row r="22" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="30"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
     </row>
     <row r="23" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="30"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
     </row>
     <row r="24" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="30"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
     </row>
     <row r="25" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" s="30"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
     </row>
     <row r="26" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C26" s="30"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
     </row>
     <row r="27" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C27" s="30"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
     </row>
     <row r="28" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C28" s="30"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
     </row>
     <row r="29" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C29" s="30"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
     </row>
     <row r="30" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="30"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
     </row>
     <row r="31" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C31" s="30"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
     </row>
     <row r="32" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C32" s="30"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
     </row>
     <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4224,16 +4396,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420918E4-102F-4514-9A83-B87864288C9D}">
-  <dimension ref="A1"/>
+  <dimension ref="C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4249,1044 +4428,1044 @@
   <sheetData>
     <row r="1" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="164"/>
-      <c r="O2" s="162" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="173"/>
+      <c r="O2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="164"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="173"/>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C3" s="165"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="167"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="167"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="175"/>
+      <c r="S3" s="175"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="175"/>
+      <c r="V3" s="175"/>
+      <c r="W3" s="175"/>
+      <c r="X3" s="176"/>
     </row>
     <row r="4" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="170"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="179"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
     </row>
     <row r="5" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C6" s="171"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="173"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="173"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="181"/>
+      <c r="Q6" s="181"/>
+      <c r="R6" s="181"/>
+      <c r="S6" s="181"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="181"/>
+      <c r="W6" s="181"/>
+      <c r="X6" s="182"/>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C7" s="174"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="176"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="176"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
+      <c r="W7" s="184"/>
+      <c r="X7" s="185"/>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C8" s="174"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="176"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="176"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="185"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="185"/>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="176"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="176"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="185"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="185"/>
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="176"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="176"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="185"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="185"/>
     </row>
     <row r="11" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="176"/>
-      <c r="O11" s="174"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="176"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="185"/>
     </row>
     <row r="12" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="176"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
-      <c r="U12" s="175"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="176"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="185"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="185"/>
     </row>
     <row r="13" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="176"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="185"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="185"/>
     </row>
     <row r="14" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="176"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="176"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="185"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="185"/>
     </row>
     <row r="15" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="176"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="176"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="185"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="185"/>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="176"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="175"/>
-      <c r="V16" s="175"/>
-      <c r="W16" s="175"/>
-      <c r="X16" s="176"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="185"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="185"/>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="O17" s="174"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="175"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="175"/>
-      <c r="W17" s="175"/>
-      <c r="X17" s="176"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="185"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
+      <c r="W17" s="184"/>
+      <c r="X17" s="185"/>
     </row>
     <row r="18" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="175"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="176"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="185"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
+      <c r="W18" s="184"/>
+      <c r="X18" s="185"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="176"/>
-      <c r="O19" s="174"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="175"/>
-      <c r="T19" s="175"/>
-      <c r="U19" s="175"/>
-      <c r="V19" s="175"/>
-      <c r="W19" s="175"/>
-      <c r="X19" s="176"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="185"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="184"/>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
+      <c r="W19" s="184"/>
+      <c r="X19" s="185"/>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="176"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="175"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="175"/>
-      <c r="X20" s="176"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="185"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="185"/>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="176"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="176"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="185"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="185"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="175"/>
-      <c r="U22" s="175"/>
-      <c r="V22" s="175"/>
-      <c r="W22" s="175"/>
-      <c r="X22" s="176"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="185"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="185"/>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="176"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="175"/>
-      <c r="X23" s="176"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="185"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="185"/>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="175"/>
-      <c r="V24" s="175"/>
-      <c r="W24" s="175"/>
-      <c r="X24" s="176"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="185"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="185"/>
     </row>
     <row r="25" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C25" s="174"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="175"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="176"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="185"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
+      <c r="W25" s="184"/>
+      <c r="X25" s="185"/>
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="176"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
-      <c r="W26" s="175"/>
-      <c r="X26" s="176"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="185"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="184"/>
+      <c r="X26" s="185"/>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="175"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="175"/>
-      <c r="X27" s="176"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="185"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
+      <c r="W27" s="184"/>
+      <c r="X27" s="185"/>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C28" s="174"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="176"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="175"/>
-      <c r="X28" s="176"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="185"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
+      <c r="W28" s="184"/>
+      <c r="X28" s="185"/>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="176"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="175"/>
-      <c r="V29" s="175"/>
-      <c r="W29" s="175"/>
-      <c r="X29" s="176"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="185"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
+      <c r="W29" s="184"/>
+      <c r="X29" s="185"/>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="176"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="175"/>
-      <c r="U30" s="175"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="175"/>
-      <c r="X30" s="176"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="185"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="185"/>
     </row>
     <row r="31" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="176"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="175"/>
-      <c r="U31" s="175"/>
-      <c r="V31" s="175"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="176"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="185"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
+      <c r="W31" s="184"/>
+      <c r="X31" s="185"/>
     </row>
     <row r="32" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="176"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="176"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="185"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="184"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
+      <c r="W32" s="184"/>
+      <c r="X32" s="185"/>
     </row>
     <row r="33" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="176"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
-      <c r="U33" s="175"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="175"/>
-      <c r="X33" s="176"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="185"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
+      <c r="W33" s="184"/>
+      <c r="X33" s="185"/>
     </row>
     <row r="34" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="176"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
-      <c r="S34" s="175"/>
-      <c r="T34" s="175"/>
-      <c r="U34" s="175"/>
-      <c r="V34" s="175"/>
-      <c r="W34" s="175"/>
-      <c r="X34" s="176"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="185"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="184"/>
+      <c r="V34" s="184"/>
+      <c r="W34" s="184"/>
+      <c r="X34" s="185"/>
     </row>
     <row r="35" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="176"/>
-      <c r="O35" s="174"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
-      <c r="W35" s="175"/>
-      <c r="X35" s="176"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="185"/>
+      <c r="O35" s="183"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="184"/>
+      <c r="W35" s="184"/>
+      <c r="X35" s="185"/>
     </row>
     <row r="36" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C36" s="174"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="176"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="175"/>
-      <c r="T36" s="175"/>
-      <c r="U36" s="175"/>
-      <c r="V36" s="175"/>
-      <c r="W36" s="175"/>
-      <c r="X36" s="176"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="185"/>
+      <c r="O36" s="183"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="184"/>
+      <c r="V36" s="184"/>
+      <c r="W36" s="184"/>
+      <c r="X36" s="185"/>
     </row>
     <row r="37" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C37" s="174"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="176"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
-      <c r="W37" s="175"/>
-      <c r="X37" s="176"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="185"/>
+      <c r="O37" s="183"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="184"/>
+      <c r="V37" s="184"/>
+      <c r="W37" s="184"/>
+      <c r="X37" s="185"/>
     </row>
     <row r="38" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C38" s="174"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="176"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="175"/>
-      <c r="T38" s="175"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
-      <c r="W38" s="175"/>
-      <c r="X38" s="176"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="184"/>
+      <c r="L38" s="185"/>
+      <c r="O38" s="183"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="184"/>
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="184"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="184"/>
+      <c r="W38" s="184"/>
+      <c r="X38" s="185"/>
     </row>
     <row r="39" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="177"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="179"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
-      <c r="S39" s="178"/>
-      <c r="T39" s="178"/>
-      <c r="U39" s="178"/>
-      <c r="V39" s="178"/>
-      <c r="W39" s="178"/>
-      <c r="X39" s="179"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="188"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="187"/>
+      <c r="Q39" s="187"/>
+      <c r="R39" s="187"/>
+      <c r="S39" s="187"/>
+      <c r="T39" s="187"/>
+      <c r="U39" s="187"/>
+      <c r="V39" s="187"/>
+      <c r="W39" s="187"/>
+      <c r="X39" s="188"/>
     </row>
     <row r="40" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C41" s="180"/>
-      <c r="D41" s="181"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="181"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="182"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="181"/>
-      <c r="T41" s="181"/>
-      <c r="U41" s="181"/>
-      <c r="V41" s="181"/>
-      <c r="W41" s="181"/>
-      <c r="X41" s="182"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="191"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="190"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="191"/>
     </row>
     <row r="42" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C42" s="183"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="184"/>
-      <c r="L42" s="185"/>
-      <c r="O42" s="183"/>
-      <c r="P42" s="184"/>
-      <c r="Q42" s="184"/>
-      <c r="R42" s="184"/>
-      <c r="S42" s="184"/>
-      <c r="T42" s="184"/>
-      <c r="U42" s="184"/>
-      <c r="V42" s="184"/>
-      <c r="W42" s="184"/>
-      <c r="X42" s="185"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="194"/>
+      <c r="O42" s="192"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="193"/>
+      <c r="R42" s="193"/>
+      <c r="S42" s="193"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="193"/>
+      <c r="V42" s="193"/>
+      <c r="W42" s="193"/>
+      <c r="X42" s="194"/>
     </row>
     <row r="43" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C43" s="183"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
-      <c r="K43" s="184"/>
-      <c r="L43" s="185"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="184"/>
-      <c r="Q43" s="184"/>
-      <c r="R43" s="184"/>
-      <c r="S43" s="184"/>
-      <c r="T43" s="184"/>
-      <c r="U43" s="184"/>
-      <c r="V43" s="184"/>
-      <c r="W43" s="184"/>
-      <c r="X43" s="185"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="194"/>
+      <c r="O43" s="192"/>
+      <c r="P43" s="193"/>
+      <c r="Q43" s="193"/>
+      <c r="R43" s="193"/>
+      <c r="S43" s="193"/>
+      <c r="T43" s="193"/>
+      <c r="U43" s="193"/>
+      <c r="V43" s="193"/>
+      <c r="W43" s="193"/>
+      <c r="X43" s="194"/>
     </row>
     <row r="44" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C44" s="183"/>
-      <c r="D44" s="184"/>
-      <c r="E44" s="184"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="184"/>
-      <c r="L44" s="185"/>
-      <c r="O44" s="183"/>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="184"/>
-      <c r="S44" s="184"/>
-      <c r="T44" s="184"/>
-      <c r="U44" s="184"/>
-      <c r="V44" s="184"/>
-      <c r="W44" s="184"/>
-      <c r="X44" s="185"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="194"/>
+      <c r="O44" s="192"/>
+      <c r="P44" s="193"/>
+      <c r="Q44" s="193"/>
+      <c r="R44" s="193"/>
+      <c r="S44" s="193"/>
+      <c r="T44" s="193"/>
+      <c r="U44" s="193"/>
+      <c r="V44" s="193"/>
+      <c r="W44" s="193"/>
+      <c r="X44" s="194"/>
     </row>
     <row r="45" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C45" s="183"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
-      <c r="J45" s="184"/>
-      <c r="K45" s="184"/>
-      <c r="L45" s="185"/>
-      <c r="O45" s="183"/>
-      <c r="P45" s="184"/>
-      <c r="Q45" s="184"/>
-      <c r="R45" s="184"/>
-      <c r="S45" s="184"/>
-      <c r="T45" s="184"/>
-      <c r="U45" s="184"/>
-      <c r="V45" s="184"/>
-      <c r="W45" s="184"/>
-      <c r="X45" s="185"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="193"/>
+      <c r="K45" s="193"/>
+      <c r="L45" s="194"/>
+      <c r="O45" s="192"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="193"/>
+      <c r="R45" s="193"/>
+      <c r="S45" s="193"/>
+      <c r="T45" s="193"/>
+      <c r="U45" s="193"/>
+      <c r="V45" s="193"/>
+      <c r="W45" s="193"/>
+      <c r="X45" s="194"/>
     </row>
     <row r="46" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C46" s="183"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="184"/>
-      <c r="I46" s="184"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="184"/>
-      <c r="L46" s="185"/>
-      <c r="O46" s="183"/>
-      <c r="P46" s="184"/>
-      <c r="Q46" s="184"/>
-      <c r="R46" s="184"/>
-      <c r="S46" s="184"/>
-      <c r="T46" s="184"/>
-      <c r="U46" s="184"/>
-      <c r="V46" s="184"/>
-      <c r="W46" s="184"/>
-      <c r="X46" s="185"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
+      <c r="J46" s="193"/>
+      <c r="K46" s="193"/>
+      <c r="L46" s="194"/>
+      <c r="O46" s="192"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="193"/>
+      <c r="R46" s="193"/>
+      <c r="S46" s="193"/>
+      <c r="T46" s="193"/>
+      <c r="U46" s="193"/>
+      <c r="V46" s="193"/>
+      <c r="W46" s="193"/>
+      <c r="X46" s="194"/>
     </row>
     <row r="47" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C47" s="183"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="184"/>
-      <c r="L47" s="185"/>
-      <c r="O47" s="183"/>
-      <c r="P47" s="184"/>
-      <c r="Q47" s="184"/>
-      <c r="R47" s="184"/>
-      <c r="S47" s="184"/>
-      <c r="T47" s="184"/>
-      <c r="U47" s="184"/>
-      <c r="V47" s="184"/>
-      <c r="W47" s="184"/>
-      <c r="X47" s="185"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="193"/>
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="194"/>
+      <c r="O47" s="192"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
+      <c r="S47" s="193"/>
+      <c r="T47" s="193"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="193"/>
+      <c r="W47" s="193"/>
+      <c r="X47" s="194"/>
     </row>
     <row r="48" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C48" s="183"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="184"/>
-      <c r="I48" s="184"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="185"/>
-      <c r="O48" s="183"/>
-      <c r="P48" s="184"/>
-      <c r="Q48" s="184"/>
-      <c r="R48" s="184"/>
-      <c r="S48" s="184"/>
-      <c r="T48" s="184"/>
-      <c r="U48" s="184"/>
-      <c r="V48" s="184"/>
-      <c r="W48" s="184"/>
-      <c r="X48" s="185"/>
+      <c r="C48" s="192"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="194"/>
+      <c r="O48" s="192"/>
+      <c r="P48" s="193"/>
+      <c r="Q48" s="193"/>
+      <c r="R48" s="193"/>
+      <c r="S48" s="193"/>
+      <c r="T48" s="193"/>
+      <c r="U48" s="193"/>
+      <c r="V48" s="193"/>
+      <c r="W48" s="193"/>
+      <c r="X48" s="194"/>
     </row>
     <row r="49" spans="3:24" x14ac:dyDescent="0.45">
-      <c r="C49" s="183"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="184"/>
-      <c r="L49" s="185"/>
-      <c r="O49" s="183"/>
-      <c r="P49" s="184"/>
-      <c r="Q49" s="184"/>
-      <c r="R49" s="184"/>
-      <c r="S49" s="184"/>
-      <c r="T49" s="184"/>
-      <c r="U49" s="184"/>
-      <c r="V49" s="184"/>
-      <c r="W49" s="184"/>
-      <c r="X49" s="185"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
+      <c r="G49" s="193"/>
+      <c r="H49" s="193"/>
+      <c r="I49" s="193"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="194"/>
+      <c r="O49" s="192"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="193"/>
+      <c r="R49" s="193"/>
+      <c r="S49" s="193"/>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="193"/>
+      <c r="W49" s="193"/>
+      <c r="X49" s="194"/>
     </row>
     <row r="50" spans="3:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C50" s="186"/>
-      <c r="D50" s="187"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="187"/>
-      <c r="L50" s="188"/>
-      <c r="O50" s="186"/>
-      <c r="P50" s="187"/>
-      <c r="Q50" s="187"/>
-      <c r="R50" s="187"/>
-      <c r="S50" s="187"/>
-      <c r="T50" s="187"/>
-      <c r="U50" s="187"/>
-      <c r="V50" s="187"/>
-      <c r="W50" s="187"/>
-      <c r="X50" s="188"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="197"/>
+      <c r="O50" s="195"/>
+      <c r="P50" s="196"/>
+      <c r="Q50" s="196"/>
+      <c r="R50" s="196"/>
+      <c r="S50" s="196"/>
+      <c r="T50" s="196"/>
+      <c r="U50" s="196"/>
+      <c r="V50" s="196"/>
+      <c r="W50" s="196"/>
+      <c r="X50" s="197"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.45">
       <c r="E55" s="29"/>
